--- a/raw_data/20200818_saline/20200818_Sensor2_Test_47.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_47.xlsx
@@ -1,568 +1,984 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C62424-DEAB-446B-B7EA-3FEEBB06D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>41775.059806</v>
+        <v>41775.059805999997</v>
       </c>
       <c r="B2" s="1">
-        <v>11.604183</v>
+        <v>11.604183000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1256.940000</v>
+        <v>1256.94</v>
       </c>
       <c r="D2" s="1">
-        <v>-280.461000</v>
+        <v>-280.46100000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>41785.433434</v>
+        <v>41785.433433999999</v>
       </c>
       <c r="G2" s="1">
         <v>11.607065</v>
       </c>
       <c r="H2" s="1">
-        <v>1277.660000</v>
+        <v>1277.6600000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-244.356000</v>
+        <v>-244.35599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>41795.863804</v>
+        <v>41795.863804000001</v>
       </c>
       <c r="L2" s="1">
-        <v>11.609962</v>
+        <v>11.609961999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1310.560000</v>
+        <v>1310.56</v>
       </c>
       <c r="N2" s="1">
-        <v>-192.614000</v>
+        <v>-192.614</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>41806.376512</v>
+        <v>41806.376512000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>11.612882</v>
+        <v>11.612882000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1322.400000</v>
+        <v>1322.4</v>
       </c>
       <c r="S2" s="1">
-        <v>-177.465000</v>
+        <v>-177.465</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>41817.268656</v>
       </c>
       <c r="V2" s="1">
-        <v>11.615908</v>
+        <v>11.615907999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1336.020000</v>
+        <v>1336.02</v>
       </c>
       <c r="X2" s="1">
-        <v>-166.886000</v>
+        <v>-166.886</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>41827.694067</v>
+        <v>41827.694066999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>11.618804</v>
+        <v>11.618804000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1354.300000</v>
+        <v>1354.3</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.087000</v>
+        <v>-167.08699999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>41838.236547</v>
@@ -571,360 +987,360 @@
         <v>11.621732</v>
       </c>
       <c r="AG2" s="1">
-        <v>1368.120000</v>
+        <v>1368.12</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.873000</v>
+        <v>-177.87299999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>41848.689223</v>
+        <v>41848.689223000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.624636</v>
+        <v>11.624636000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1389.370000</v>
+        <v>1389.37</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.415000</v>
+        <v>-208.41499999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>41859.566000</v>
+        <v>41859.565999999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.627657</v>
+        <v>11.627656999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1411.300000</v>
+        <v>1411.3</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.632000</v>
+        <v>-252.63200000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>41870.546458</v>
+        <v>41870.546457999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>11.630707</v>
+        <v>11.630706999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1436.020000</v>
+        <v>1436.02</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.798000</v>
+        <v>-312.798</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>41880.919756</v>
+        <v>41880.919756000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>11.633589</v>
+        <v>11.633589000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1455.390000</v>
+        <v>1455.39</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.019000</v>
+        <v>-365.01900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>41891.471150</v>
+        <v>41891.471149999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>11.636520</v>
+        <v>11.636520000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1540.510000</v>
+        <v>1540.51</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.922000</v>
+        <v>-613.92200000000003</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>41902.087520</v>
+        <v>41902.087520000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>11.639469</v>
       </c>
       <c r="BK2" s="1">
-        <v>1694.100000</v>
+        <v>1694.1</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1060.730000</v>
+        <v>-1060.73</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>41913.169635</v>
+        <v>41913.169634999998</v>
       </c>
       <c r="BO2" s="1">
         <v>11.642547</v>
       </c>
       <c r="BP2" s="1">
-        <v>1987.550000</v>
+        <v>1987.55</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1835.980000</v>
+        <v>-1835.98</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>41925.431731</v>
+        <v>41925.431730999997</v>
       </c>
       <c r="BT2" s="1">
         <v>11.645953</v>
       </c>
       <c r="BU2" s="1">
-        <v>2374.620000</v>
+        <v>2374.62</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2734.790000</v>
+        <v>-2734.79</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>41936.163667</v>
+        <v>41936.163667000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>11.648934</v>
+        <v>11.648934000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2858.170000</v>
+        <v>2858.17</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3712.370000</v>
+        <v>-3712.37</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>41947.068213</v>
+        <v>41947.068212999999</v>
       </c>
       <c r="CD2" s="1">
         <v>11.651963</v>
       </c>
       <c r="CE2" s="1">
-        <v>4278.760000</v>
+        <v>4278.76</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6090.530000</v>
+        <v>-6090.53</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>41775.413784</v>
+        <v>41775.413783999997</v>
       </c>
       <c r="B3" s="1">
         <v>11.604282</v>
       </c>
       <c r="C3" s="1">
-        <v>1257.110000</v>
+        <v>1257.1099999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-280.416000</v>
+        <v>-280.416</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>41785.781138</v>
+        <v>41785.781137999998</v>
       </c>
       <c r="G3" s="1">
         <v>11.607161</v>
       </c>
       <c r="H3" s="1">
-        <v>1277.940000</v>
+        <v>1277.94</v>
       </c>
       <c r="I3" s="1">
-        <v>-244.510000</v>
+        <v>-244.51</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>41796.577053</v>
+        <v>41796.577053000001</v>
       </c>
       <c r="L3" s="1">
-        <v>11.610160</v>
+        <v>11.61016</v>
       </c>
       <c r="M3" s="1">
-        <v>1310.390000</v>
+        <v>1310.3900000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-192.206000</v>
+        <v>-192.20599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>41807.114062</v>
+        <v>41807.114062000001</v>
       </c>
       <c r="Q3" s="1">
         <v>11.613087</v>
       </c>
       <c r="R3" s="1">
-        <v>1322.310000</v>
+        <v>1322.31</v>
       </c>
       <c r="S3" s="1">
-        <v>-177.444000</v>
+        <v>-177.44399999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>41817.615856</v>
+        <v>41817.615855999997</v>
       </c>
       <c r="V3" s="1">
         <v>11.616004</v>
       </c>
       <c r="W3" s="1">
-        <v>1336.140000</v>
+        <v>1336.14</v>
       </c>
       <c r="X3" s="1">
-        <v>-166.938000</v>
+        <v>-166.93799999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>41828.046722</v>
+        <v>41828.046721999999</v>
       </c>
       <c r="AA3" s="1">
         <v>11.618902</v>
       </c>
       <c r="AB3" s="1">
-        <v>1354.750000</v>
+        <v>1354.75</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.158000</v>
+        <v>-167.15799999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>41838.600101</v>
+        <v>41838.600101000004</v>
       </c>
       <c r="AF3" s="1">
-        <v>11.621833</v>
+        <v>11.621833000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1368.120000</v>
+        <v>1368.12</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.833000</v>
+        <v>-177.833</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>41849.388086</v>
+        <v>41849.388085999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>11.624830</v>
+        <v>11.624829999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1389.360000</v>
+        <v>1389.36</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.451000</v>
+        <v>-208.45099999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>41860.006936</v>
+        <v>41860.006935999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.627780</v>
+        <v>11.62778</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1411.280000</v>
+        <v>1411.28</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.609000</v>
+        <v>-252.60900000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>41870.657563</v>
+        <v>41870.657563000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>11.630738</v>
+        <v>11.630737999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1436.030000</v>
+        <v>1436.03</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.823000</v>
+        <v>-312.82299999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>41881.284352</v>
+        <v>41881.284352000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>11.633690</v>
+        <v>11.63369</v>
       </c>
       <c r="BA3" s="1">
-        <v>1455.400000</v>
+        <v>1455.4</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.016000</v>
+        <v>-365.01600000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>41891.863026</v>
+        <v>41891.863025999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>11.636629</v>
+        <v>11.636628999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1540.410000</v>
+        <v>1540.41</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.936000</v>
+        <v>-613.93600000000004</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>41902.487296</v>
+        <v>41902.487295999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>11.639580</v>
+        <v>11.63958</v>
       </c>
       <c r="BK3" s="1">
-        <v>1694.070000</v>
+        <v>1694.07</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1060.760000</v>
+        <v>-1060.76</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>41913.597682</v>
@@ -933,270 +1349,270 @@
         <v>11.642666</v>
       </c>
       <c r="BP3" s="1">
-        <v>1987.320000</v>
+        <v>1987.32</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1836.180000</v>
+        <v>-1836.18</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>41925.609840</v>
+        <v>41925.609839999997</v>
       </c>
       <c r="BT3" s="1">
         <v>11.646003</v>
       </c>
       <c r="BU3" s="1">
-        <v>2373.710000</v>
+        <v>2373.71</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2735.370000</v>
+        <v>-2735.37</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>41936.332308</v>
+        <v>41936.332307999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>11.648981</v>
+        <v>11.648980999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2857.740000</v>
+        <v>2857.74</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3712.000000</v>
+        <v>-3712</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>41947.661924</v>
       </c>
       <c r="CD3" s="1">
-        <v>11.652128</v>
+        <v>11.652127999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4288.940000</v>
+        <v>4288.9399999999996</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6069.150000</v>
+        <v>-6069.15</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>41776.094297</v>
+        <v>41776.094297000003</v>
       </c>
       <c r="B4" s="1">
         <v>11.604471</v>
       </c>
       <c r="C4" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="D4" s="1">
-        <v>-280.582000</v>
+        <v>-280.58199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>41786.466602</v>
       </c>
       <c r="G4" s="1">
-        <v>11.607352</v>
+        <v>11.607352000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1278.750000</v>
+        <v>1278.75</v>
       </c>
       <c r="I4" s="1">
-        <v>-244.367000</v>
+        <v>-244.36699999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>41796.923292</v>
+        <v>41796.923291999999</v>
       </c>
       <c r="L4" s="1">
         <v>11.610256</v>
       </c>
       <c r="M4" s="1">
-        <v>1310.710000</v>
+        <v>1310.71</v>
       </c>
       <c r="N4" s="1">
-        <v>-192.481000</v>
+        <v>-192.48099999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>41807.457789</v>
       </c>
       <c r="Q4" s="1">
-        <v>11.613183</v>
+        <v>11.613182999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1322.340000</v>
+        <v>1322.34</v>
       </c>
       <c r="S4" s="1">
-        <v>-177.385000</v>
+        <v>-177.38499999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>41817.960081</v>
+        <v>41817.960080999997</v>
       </c>
       <c r="V4" s="1">
-        <v>11.616100</v>
+        <v>11.616099999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1336.250000</v>
+        <v>1336.25</v>
       </c>
       <c r="X4" s="1">
-        <v>-166.874000</v>
+        <v>-166.874</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>41828.709908</v>
+        <v>41828.709907999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>11.619086</v>
+        <v>11.619085999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1354.480000</v>
+        <v>1354.48</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.034000</v>
+        <v>-167.03399999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>41839.289539</v>
+        <v>41839.289538999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.622025</v>
+        <v>11.622025000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1368.110000</v>
+        <v>1368.11</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.887000</v>
+        <v>-177.887</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>41849.769754</v>
+        <v>41849.769754000001</v>
       </c>
       <c r="AK4" s="1">
         <v>11.624936</v>
       </c>
       <c r="AL4" s="1">
-        <v>1389.350000</v>
+        <v>1389.35</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.458000</v>
+        <v>-208.458</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>41860.365581</v>
+        <v>41860.365580999998</v>
       </c>
       <c r="AP4" s="1">
         <v>11.627879</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1411.310000</v>
+        <v>1411.31</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.602000</v>
+        <v>-252.602</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>41871.020601</v>
+        <v>41871.020600999997</v>
       </c>
       <c r="AU4" s="1">
         <v>11.630839</v>
       </c>
       <c r="AV4" s="1">
-        <v>1436.020000</v>
+        <v>1436.02</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.817000</v>
+        <v>-312.81700000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>41881.637964</v>
+        <v>41881.637964000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>11.633788</v>
+        <v>11.633787999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1455.370000</v>
+        <v>1455.37</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.043000</v>
+        <v>-365.04300000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>41892.284093</v>
+        <v>41892.284093000002</v>
       </c>
       <c r="BE4" s="1">
         <v>11.636746</v>
       </c>
       <c r="BF4" s="1">
-        <v>1540.430000</v>
+        <v>1540.43</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.958000</v>
+        <v>-613.95799999999997</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>41902.919808</v>
+        <v>41902.919807999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.639700</v>
+        <v>11.639699999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1694.070000</v>
+        <v>1694.07</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1060.780000</v>
+        <v>-1060.78</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>41914.005392</v>
+        <v>41914.005391999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.642779</v>
+        <v>11.642779000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1987.370000</v>
+        <v>1987.37</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1836.080000</v>
+        <v>-1836.08</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>41926.021472</v>
@@ -1205,332 +1621,332 @@
         <v>11.646117</v>
       </c>
       <c r="BU4" s="1">
-        <v>2372.800000</v>
+        <v>2372.8000000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2735.220000</v>
+        <v>-2735.22</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>41936.753923</v>
+        <v>41936.753922999997</v>
       </c>
       <c r="BY4" s="1">
         <v>11.649098</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2856.880000</v>
+        <v>2856.88</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3712.430000</v>
+        <v>-3712.43</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>41948.201077</v>
+        <v>41948.201076999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>11.652278</v>
+        <v>11.652278000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4272.410000</v>
+        <v>4272.41</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6084.490000</v>
+        <v>-6084.49</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>41776.440006</v>
+        <v>41776.440005999997</v>
       </c>
       <c r="B5" s="1">
-        <v>11.604567</v>
+        <v>11.604566999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1256.690000</v>
+        <v>1256.69</v>
       </c>
       <c r="D5" s="1">
-        <v>-280.139000</v>
+        <v>-280.13900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>41786.811817</v>
+        <v>41786.811817000002</v>
       </c>
       <c r="G5" s="1">
         <v>11.607448</v>
       </c>
       <c r="H5" s="1">
-        <v>1277.480000</v>
+        <v>1277.48</v>
       </c>
       <c r="I5" s="1">
-        <v>-244.169000</v>
+        <v>-244.16900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>41797.270491</v>
+        <v>41797.270491000003</v>
       </c>
       <c r="L5" s="1">
         <v>11.610353</v>
       </c>
       <c r="M5" s="1">
-        <v>1310.350000</v>
+        <v>1310.3499999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-192.124000</v>
+        <v>-192.124</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>41808.127420</v>
+        <v>41808.127419999997</v>
       </c>
       <c r="Q5" s="1">
         <v>11.613369</v>
       </c>
       <c r="R5" s="1">
-        <v>1322.470000</v>
+        <v>1322.47</v>
       </c>
       <c r="S5" s="1">
-        <v>-177.350000</v>
+        <v>-177.35</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>41818.618308</v>
+        <v>41818.618307999997</v>
       </c>
       <c r="V5" s="1">
-        <v>11.616283</v>
+        <v>11.616282999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1336.190000</v>
+        <v>1336.19</v>
       </c>
       <c r="X5" s="1">
-        <v>-166.863000</v>
+        <v>-166.863</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>41829.091298</v>
+        <v>41829.091297999999</v>
       </c>
       <c r="AA5" s="1">
         <v>11.619192</v>
       </c>
       <c r="AB5" s="1">
-        <v>1354.460000</v>
+        <v>1354.46</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.113000</v>
+        <v>-167.113</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>41839.628343</v>
+        <v>41839.628342999997</v>
       </c>
       <c r="AF5" s="1">
         <v>11.622119</v>
       </c>
       <c r="AG5" s="1">
-        <v>1368.120000</v>
+        <v>1368.12</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.852000</v>
+        <v>-177.852</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>41850.118197</v>
+        <v>41850.118197000003</v>
       </c>
       <c r="AK5" s="1">
         <v>11.625033</v>
       </c>
       <c r="AL5" s="1">
-        <v>1389.360000</v>
+        <v>1389.36</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.433000</v>
+        <v>-208.43299999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>41860.726168</v>
+        <v>41860.726168000001</v>
       </c>
       <c r="AP5" s="1">
         <v>11.627979</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1411.310000</v>
+        <v>1411.31</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.631000</v>
+        <v>-252.631</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>41871.381195</v>
+        <v>41871.381195000002</v>
       </c>
       <c r="AU5" s="1">
         <v>11.630939</v>
       </c>
       <c r="AV5" s="1">
-        <v>1436.020000</v>
+        <v>1436.02</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.818000</v>
+        <v>-312.81799999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>41882.070971</v>
+        <v>41882.070971000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>11.633909</v>
+        <v>11.633908999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1455.380000</v>
+        <v>1455.38</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.015000</v>
+        <v>-365.01499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>41892.571805</v>
       </c>
       <c r="BE5" s="1">
-        <v>11.636826</v>
+        <v>11.636825999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1540.430000</v>
+        <v>1540.43</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.937000</v>
+        <v>-613.93700000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>41903.236752</v>
+        <v>41903.236751999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>11.639788</v>
+        <v>11.639787999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1694.060000</v>
+        <v>1694.06</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1060.730000</v>
+        <v>-1060.73</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>41914.403185</v>
+        <v>41914.403185000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>11.642890</v>
+        <v>11.64289</v>
       </c>
       <c r="BP5" s="1">
-        <v>1987.370000</v>
+        <v>1987.37</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1836.280000</v>
+        <v>-1836.28</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>41926.439136</v>
+        <v>41926.439136000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>11.646233</v>
+        <v>11.646233000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2372.220000</v>
+        <v>2372.2199999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2734.590000</v>
+        <v>-2734.59</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>41937.177986</v>
+        <v>41937.177986000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>11.649216</v>
+        <v>11.649215999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2857.310000</v>
+        <v>2857.31</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3712.320000</v>
+        <v>-3712.32</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>41948.744195</v>
+        <v>41948.744194999999</v>
       </c>
       <c r="CD5" s="1">
         <v>11.652429</v>
       </c>
       <c r="CE5" s="1">
-        <v>4292.600000</v>
+        <v>4292.6000000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6082.130000</v>
+        <v>-6082.13</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>41776.781744</v>
       </c>
       <c r="B6" s="1">
-        <v>11.604662</v>
+        <v>11.604661999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1257.010000</v>
+        <v>1257.01</v>
       </c>
       <c r="D6" s="1">
-        <v>-280.372000</v>
+        <v>-280.37200000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>41787.161505</v>
+        <v>41787.161504999996</v>
       </c>
       <c r="G6" s="1">
         <v>11.607545</v>
       </c>
       <c r="H6" s="1">
-        <v>1278.930000</v>
+        <v>1278.93</v>
       </c>
       <c r="I6" s="1">
-        <v>-244.238000</v>
+        <v>-244.238</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>41797.930172</v>
@@ -1539,300 +1955,300 @@
         <v>11.610536</v>
       </c>
       <c r="M6" s="1">
-        <v>1310.430000</v>
+        <v>1310.43</v>
       </c>
       <c r="N6" s="1">
-        <v>-192.267000</v>
+        <v>-192.267</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>41808.503853</v>
+        <v>41808.503853000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.613473</v>
+        <v>11.613473000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1322.460000</v>
+        <v>1322.46</v>
       </c>
       <c r="S6" s="1">
-        <v>-177.403000</v>
+        <v>-177.40299999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>41818.992751</v>
+        <v>41818.992750999998</v>
       </c>
       <c r="V6" s="1">
         <v>11.616387</v>
       </c>
       <c r="W6" s="1">
-        <v>1336.180000</v>
+        <v>1336.18</v>
       </c>
       <c r="X6" s="1">
-        <v>-166.768000</v>
+        <v>-166.768</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>41829.440976</v>
+        <v>41829.440975999998</v>
       </c>
       <c r="AA6" s="1">
         <v>11.619289</v>
       </c>
       <c r="AB6" s="1">
-        <v>1354.570000</v>
+        <v>1354.57</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.012000</v>
+        <v>-167.012</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>41839.976498</v>
+        <v>41839.976498000004</v>
       </c>
       <c r="AF6" s="1">
         <v>11.622216</v>
       </c>
       <c r="AG6" s="1">
-        <v>1368.060000</v>
+        <v>1368.06</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.878000</v>
+        <v>-177.87799999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>41850.467878</v>
+        <v>41850.467878000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>11.625130</v>
+        <v>11.62513</v>
       </c>
       <c r="AL6" s="1">
-        <v>1389.360000</v>
+        <v>1389.36</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.429000</v>
+        <v>-208.429</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>41861.158683</v>
+        <v>41861.158683000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>11.628100</v>
+        <v>11.6281</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1411.310000</v>
+        <v>1411.31</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.612000</v>
+        <v>-252.61199999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>41871.832554</v>
+        <v>41871.832554000001</v>
       </c>
       <c r="AU6" s="1">
         <v>11.631065</v>
       </c>
       <c r="AV6" s="1">
-        <v>1436.010000</v>
+        <v>1436.01</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.771000</v>
+        <v>-312.77100000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>41882.358156</v>
+        <v>41882.358156000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>11.633988</v>
       </c>
       <c r="BA6" s="1">
-        <v>1455.370000</v>
+        <v>1455.37</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.021000</v>
+        <v>-365.02100000000002</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>41892.936365</v>
+        <v>41892.936365000001</v>
       </c>
       <c r="BE6" s="1">
         <v>11.636927</v>
       </c>
       <c r="BF6" s="1">
-        <v>1540.450000</v>
+        <v>1540.45</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.907000</v>
+        <v>-613.90700000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>41903.622144</v>
+        <v>41903.622144000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>11.639895</v>
+        <v>11.639894999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1694.030000</v>
+        <v>1694.03</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1060.740000</v>
+        <v>-1060.74</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>41914.824320</v>
+        <v>41914.82432</v>
       </c>
       <c r="BO6" s="1">
-        <v>11.643007</v>
+        <v>11.643007000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1987.070000</v>
+        <v>1987.07</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1836.260000</v>
+        <v>-1836.26</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>41926.874593</v>
       </c>
       <c r="BT6" s="1">
-        <v>11.646354</v>
+        <v>11.646354000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2371.660000</v>
+        <v>2371.66</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2734.290000</v>
+        <v>-2734.29</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>41937.643235</v>
+        <v>41937.643235000003</v>
       </c>
       <c r="BY6" s="1">
         <v>11.649345</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2856.860000</v>
+        <v>2856.86</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3713.380000</v>
+        <v>-3713.38</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>41949.283377</v>
       </c>
       <c r="CD6" s="1">
-        <v>11.652579</v>
+        <v>11.652578999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4276.700000</v>
+        <v>4276.7</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6072.410000</v>
+        <v>-6072.41</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>41777.442390</v>
+        <v>41777.442389999997</v>
       </c>
       <c r="B7" s="1">
-        <v>11.604845</v>
+        <v>11.604844999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1257.050000</v>
+        <v>1257.05</v>
       </c>
       <c r="D7" s="1">
-        <v>-280.315000</v>
+        <v>-280.315</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>41787.818201</v>
+        <v>41787.818201000002</v>
       </c>
       <c r="G7" s="1">
-        <v>11.607727</v>
+        <v>11.607727000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1278.100000</v>
+        <v>1278.0999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-242.960000</v>
+        <v>-242.96</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>41798.305115</v>
+        <v>41798.305115000003</v>
       </c>
       <c r="L7" s="1">
-        <v>11.610640</v>
+        <v>11.61064</v>
       </c>
       <c r="M7" s="1">
-        <v>1310.420000</v>
+        <v>1310.42</v>
       </c>
       <c r="N7" s="1">
-        <v>-192.309000</v>
+        <v>-192.309</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>41808.850588</v>
+        <v>41808.850588000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>11.613570</v>
+        <v>11.613569999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1322.400000</v>
+        <v>1322.4</v>
       </c>
       <c r="S7" s="1">
-        <v>-177.479000</v>
+        <v>-177.47900000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>41819.336477</v>
+        <v>41819.336476999997</v>
       </c>
       <c r="V7" s="1">
         <v>11.616482</v>
       </c>
       <c r="W7" s="1">
-        <v>1336.070000</v>
+        <v>1336.07</v>
       </c>
       <c r="X7" s="1">
-        <v>-166.944000</v>
+        <v>-166.94399999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>41829.788192</v>
@@ -1841,118 +2257,118 @@
         <v>11.619386</v>
       </c>
       <c r="AB7" s="1">
-        <v>1354.530000</v>
+        <v>1354.53</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.094000</v>
+        <v>-167.09399999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>41840.403058</v>
+        <v>41840.403058000004</v>
       </c>
       <c r="AF7" s="1">
         <v>11.622334</v>
       </c>
       <c r="AG7" s="1">
-        <v>1368.060000</v>
+        <v>1368.06</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.828000</v>
+        <v>-177.828</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>41850.891956</v>
+        <v>41850.891955999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.625248</v>
+        <v>11.625247999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1389.360000</v>
+        <v>1389.36</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.424000</v>
+        <v>-208.42400000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>41861.444373</v>
+        <v>41861.444372999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>11.628179</v>
+        <v>11.628178999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1411.330000</v>
+        <v>1411.33</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.640000</v>
+        <v>-252.64</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>41872.109320</v>
+        <v>41872.109320000003</v>
       </c>
       <c r="AU7" s="1">
         <v>11.631141</v>
       </c>
       <c r="AV7" s="1">
-        <v>1436.010000</v>
+        <v>1436.01</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.812000</v>
+        <v>-312.81200000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>41882.718779</v>
+        <v>41882.718779000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>11.634089</v>
+        <v>11.634088999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1455.420000</v>
+        <v>1455.42</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.018000</v>
+        <v>-365.01799999999997</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>41893.297916</v>
+        <v>41893.297916000003</v>
       </c>
       <c r="BE7" s="1">
         <v>11.637027</v>
       </c>
       <c r="BF7" s="1">
-        <v>1540.410000</v>
+        <v>1540.41</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.933000</v>
+        <v>-613.93299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>41904.010510</v>
+        <v>41904.01051</v>
       </c>
       <c r="BJ7" s="1">
         <v>11.640003</v>
       </c>
       <c r="BK7" s="1">
-        <v>1694.000000</v>
+        <v>1694</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1060.760000</v>
+        <v>-1060.76</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>41915.640239</v>
@@ -1961,105 +2377,105 @@
         <v>11.643233</v>
       </c>
       <c r="BP7" s="1">
-        <v>1987.350000</v>
+        <v>1987.35</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1836.200000</v>
+        <v>-1836.2</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>41927.269905</v>
+        <v>41927.269905000001</v>
       </c>
       <c r="BT7" s="1">
         <v>11.646464</v>
       </c>
       <c r="BU7" s="1">
-        <v>2371.600000</v>
+        <v>2371.6</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2733.560000</v>
+        <v>-2733.56</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>41938.057920</v>
+        <v>41938.057919999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>11.649461</v>
+        <v>11.649461000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2856.860000</v>
+        <v>2856.86</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3711.950000</v>
+        <v>-3711.95</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>41949.820017</v>
+        <v>41949.820016999998</v>
       </c>
       <c r="CD7" s="1">
         <v>11.652728</v>
       </c>
       <c r="CE7" s="1">
-        <v>4278.280000</v>
+        <v>4278.28</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6091.420000</v>
+        <v>-6091.42</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>41777.805462</v>
+        <v>41777.805461999997</v>
       </c>
       <c r="B8" s="1">
         <v>11.604946</v>
       </c>
       <c r="C8" s="1">
-        <v>1256.920000</v>
+        <v>1256.92</v>
       </c>
       <c r="D8" s="1">
-        <v>-280.628000</v>
+        <v>-280.62799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>41788.193671</v>
+        <v>41788.193671000001</v>
       </c>
       <c r="G8" s="1">
         <v>11.607832</v>
       </c>
       <c r="H8" s="1">
-        <v>1278.300000</v>
+        <v>1278.3</v>
       </c>
       <c r="I8" s="1">
-        <v>-244.201000</v>
+        <v>-244.20099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>41798.655289</v>
+        <v>41798.655289000002</v>
       </c>
       <c r="L8" s="1">
         <v>11.610738</v>
       </c>
       <c r="M8" s="1">
-        <v>1310.410000</v>
+        <v>1310.4100000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-192.435000</v>
+        <v>-192.435</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>41809.202716</v>
@@ -2068,542 +2484,542 @@
         <v>11.613667</v>
       </c>
       <c r="R8" s="1">
-        <v>1322.410000</v>
+        <v>1322.41</v>
       </c>
       <c r="S8" s="1">
-        <v>-177.419000</v>
+        <v>-177.41900000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>41819.679245</v>
+        <v>41819.679244999999</v>
       </c>
       <c r="V8" s="1">
-        <v>11.616578</v>
+        <v>11.616578000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1336.230000</v>
+        <v>1336.23</v>
       </c>
       <c r="X8" s="1">
-        <v>-166.862000</v>
+        <v>-166.86199999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>41830.215727</v>
+        <v>41830.215727000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>11.619504</v>
+        <v>11.619503999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1354.420000</v>
+        <v>1354.42</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.173000</v>
+        <v>-167.173</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>41840.678869</v>
+        <v>41840.678869000003</v>
       </c>
       <c r="AF8" s="1">
         <v>11.622411</v>
       </c>
       <c r="AG8" s="1">
-        <v>1368.120000</v>
+        <v>1368.12</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.838000</v>
+        <v>-177.83799999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>41851.163764</v>
+        <v>41851.163763999997</v>
       </c>
       <c r="AK8" s="1">
         <v>11.625323</v>
       </c>
       <c r="AL8" s="1">
-        <v>1389.320000</v>
+        <v>1389.32</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.431000</v>
+        <v>-208.43100000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>41861.804439</v>
       </c>
       <c r="AP8" s="1">
-        <v>11.628279</v>
+        <v>11.628278999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1411.290000</v>
+        <v>1411.29</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.645000</v>
+        <v>-252.64500000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>41872.473383</v>
+        <v>41872.473382999997</v>
       </c>
       <c r="AU8" s="1">
         <v>11.631243</v>
       </c>
       <c r="AV8" s="1">
-        <v>1436.040000</v>
+        <v>1436.04</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.789000</v>
+        <v>-312.78899999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>41883.067434</v>
+        <v>41883.067433999997</v>
       </c>
       <c r="AZ8" s="1">
         <v>11.634185</v>
       </c>
       <c r="BA8" s="1">
-        <v>1455.370000</v>
+        <v>1455.37</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.036000</v>
+        <v>-365.036</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>41894.019597</v>
+        <v>41894.019596999999</v>
       </c>
       <c r="BE8" s="1">
         <v>11.637228</v>
       </c>
       <c r="BF8" s="1">
-        <v>1540.420000</v>
+        <v>1540.42</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.916000</v>
+        <v>-613.91600000000005</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>41904.797165</v>
+        <v>41904.797165000004</v>
       </c>
       <c r="BJ8" s="1">
         <v>11.640221</v>
       </c>
       <c r="BK8" s="1">
-        <v>1693.980000</v>
+        <v>1693.98</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1060.700000</v>
+        <v>-1060.7</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>41916.059822</v>
+        <v>41916.059822000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.643350</v>
+        <v>11.64335</v>
       </c>
       <c r="BP8" s="1">
-        <v>1987.170000</v>
+        <v>1987.17</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1836.180000</v>
+        <v>-1836.18</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>41927.688526</v>
+        <v>41927.688525999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>11.646580</v>
+        <v>11.64658</v>
       </c>
       <c r="BU8" s="1">
-        <v>2370.890000</v>
+        <v>2370.89</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2733.140000</v>
+        <v>-2733.14</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>41938.830161</v>
+        <v>41938.830160999998</v>
       </c>
       <c r="BY8" s="1">
         <v>11.649675</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2856.800000</v>
+        <v>2856.8</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3713.110000</v>
+        <v>-3713.11</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>41950.684048</v>
+        <v>41950.684048000003</v>
       </c>
       <c r="CD8" s="1">
         <v>11.652968</v>
       </c>
       <c r="CE8" s="1">
-        <v>4271.650000</v>
+        <v>4271.6499999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6072.020000</v>
+        <v>-6072.02</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>41778.148198</v>
+        <v>41778.148198000003</v>
       </c>
       <c r="B9" s="1">
         <v>11.605041</v>
       </c>
       <c r="C9" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="D9" s="1">
-        <v>-280.552000</v>
+        <v>-280.55200000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>41788.537895</v>
+        <v>41788.537895000001</v>
       </c>
       <c r="G9" s="1">
         <v>11.607927</v>
       </c>
       <c r="H9" s="1">
-        <v>1279.030000</v>
+        <v>1279.03</v>
       </c>
       <c r="I9" s="1">
-        <v>-244.858000</v>
+        <v>-244.858</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>41798.998557</v>
+        <v>41798.998556999999</v>
       </c>
       <c r="L9" s="1">
         <v>11.610833</v>
       </c>
       <c r="M9" s="1">
-        <v>1310.500000</v>
+        <v>1310.5</v>
       </c>
       <c r="N9" s="1">
-        <v>-192.236000</v>
+        <v>-192.23599999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>41809.632746</v>
+        <v>41809.632746000003</v>
       </c>
       <c r="Q9" s="1">
         <v>11.613787</v>
       </c>
       <c r="R9" s="1">
-        <v>1322.380000</v>
+        <v>1322.38</v>
       </c>
       <c r="S9" s="1">
-        <v>-177.359000</v>
+        <v>-177.35900000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>41820.111725</v>
+        <v>41820.111725000002</v>
       </c>
       <c r="V9" s="1">
         <v>11.616698</v>
       </c>
       <c r="W9" s="1">
-        <v>1336.190000</v>
+        <v>1336.19</v>
       </c>
       <c r="X9" s="1">
-        <v>-166.876000</v>
+        <v>-166.876</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>41830.486558</v>
+        <v>41830.486557999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.619580</v>
+        <v>11.619579999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1354.420000</v>
+        <v>1354.42</v>
       </c>
       <c r="AC9" s="1">
-        <v>-167.177000</v>
+        <v>-167.17699999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>41841.023555</v>
       </c>
       <c r="AF9" s="1">
-        <v>11.622507</v>
+        <v>11.622507000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1368.130000</v>
+        <v>1368.13</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.832000</v>
+        <v>-177.83199999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>41851.514963</v>
+        <v>41851.514963000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>11.625421</v>
+        <v>11.625420999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1389.340000</v>
+        <v>1389.34</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.439000</v>
+        <v>-208.43899999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>41862.165029</v>
+        <v>41862.165029000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>11.628379</v>
+        <v>11.628379000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1411.320000</v>
+        <v>1411.32</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.637000</v>
+        <v>-252.637</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>41873.206999</v>
+        <v>41873.206999000002</v>
       </c>
       <c r="AU9" s="1">
         <v>11.631446</v>
       </c>
       <c r="AV9" s="1">
-        <v>1436.010000</v>
+        <v>1436.01</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.779000</v>
+        <v>-312.779</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>41883.790104</v>
       </c>
       <c r="AZ9" s="1">
-        <v>11.634386</v>
+        <v>11.634385999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1455.410000</v>
+        <v>1455.41</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.989000</v>
+        <v>-364.98899999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>41894.378698</v>
       </c>
       <c r="BE9" s="1">
-        <v>11.637327</v>
+        <v>11.637327000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1540.410000</v>
+        <v>1540.41</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.991000</v>
+        <v>-613.99099999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>41905.162221</v>
+        <v>41905.162220999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.640323</v>
       </c>
       <c r="BK9" s="1">
-        <v>1693.990000</v>
+        <v>1693.99</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1060.770000</v>
+        <v>-1060.77</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>41916.454638</v>
+        <v>41916.454638000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>11.643460</v>
+        <v>11.643459999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1987.270000</v>
+        <v>1987.27</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1836.120000</v>
+        <v>-1836.12</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>41928.407261</v>
       </c>
       <c r="BT9" s="1">
-        <v>11.646780</v>
+        <v>11.64678</v>
       </c>
       <c r="BU9" s="1">
-        <v>2371.010000</v>
+        <v>2371.0100000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2732.430000</v>
+        <v>-2732.43</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>41938.961824</v>
+        <v>41938.961823999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>11.649712</v>
+        <v>11.649711999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2856.200000</v>
+        <v>2856.2</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3712.800000</v>
+        <v>-3712.8</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>41950.899808</v>
+        <v>41950.899808000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>11.653028</v>
+        <v>11.653028000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4271.760000</v>
+        <v>4271.76</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6073.620000</v>
+        <v>-6073.62</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>41778.491429</v>
+        <v>41778.491429000002</v>
       </c>
       <c r="B10" s="1">
-        <v>11.605137</v>
+        <v>11.605136999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1256.940000</v>
+        <v>1256.94</v>
       </c>
       <c r="D10" s="1">
-        <v>-280.933000</v>
+        <v>-280.93299999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>41788.882614</v>
+        <v>41788.882614000002</v>
       </c>
       <c r="G10" s="1">
-        <v>11.608023</v>
+        <v>11.608022999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1277.520000</v>
+        <v>1277.52</v>
       </c>
       <c r="I10" s="1">
-        <v>-244.108000</v>
+        <v>-244.108</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>41799.413673</v>
+        <v>41799.413673000003</v>
       </c>
       <c r="L10" s="1">
         <v>11.610948</v>
       </c>
       <c r="M10" s="1">
-        <v>1310.430000</v>
+        <v>1310.43</v>
       </c>
       <c r="N10" s="1">
-        <v>-192.123000</v>
+        <v>-192.12299999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>41809.912986</v>
+        <v>41809.912986000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.613865</v>
+        <v>11.613865000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1322.420000</v>
+        <v>1322.42</v>
       </c>
       <c r="S10" s="1">
-        <v>-177.360000</v>
+        <v>-177.36</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>41820.376124</v>
+        <v>41820.376124000002</v>
       </c>
       <c r="V10" s="1">
         <v>11.616771</v>
       </c>
       <c r="W10" s="1">
-        <v>1336.120000</v>
+        <v>1336.12</v>
       </c>
       <c r="X10" s="1">
-        <v>-166.741000</v>
+        <v>-166.74100000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>41830.834766</v>
@@ -2612,452 +3028,452 @@
         <v>11.619676</v>
       </c>
       <c r="AB10" s="1">
-        <v>1354.410000</v>
+        <v>1354.41</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.239000</v>
+        <v>-167.239</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>41841.366816</v>
+        <v>41841.366816000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>11.622602</v>
+        <v>11.622602000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1368.080000</v>
+        <v>1368.08</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.837000</v>
+        <v>-177.83699999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>41851.861635</v>
+        <v>41851.861635000001</v>
       </c>
       <c r="AK10" s="1">
         <v>11.625517</v>
       </c>
       <c r="AL10" s="1">
-        <v>1389.390000</v>
+        <v>1389.39</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.413000</v>
+        <v>-208.41300000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>41862.889188</v>
+        <v>41862.889188000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>11.628580</v>
+        <v>11.628579999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1411.280000</v>
+        <v>1411.28</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.657000</v>
+        <v>-252.65700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>41873.590410</v>
+        <v>41873.590409999997</v>
       </c>
       <c r="AU10" s="1">
         <v>11.631553</v>
       </c>
       <c r="AV10" s="1">
-        <v>1435.980000</v>
+        <v>1435.98</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.777000</v>
+        <v>-312.77699999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>41884.153674</v>
+        <v>41884.153674000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>11.634487</v>
       </c>
       <c r="BA10" s="1">
-        <v>1455.400000</v>
+        <v>1455.4</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.001000</v>
+        <v>-365.00099999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>41894.740778</v>
+        <v>41894.740777999999</v>
       </c>
       <c r="BE10" s="1">
         <v>11.637428</v>
       </c>
       <c r="BF10" s="1">
-        <v>1540.410000</v>
+        <v>1540.41</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.955000</v>
+        <v>-613.95500000000004</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>41905.850667</v>
+        <v>41905.850666999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>11.640514</v>
       </c>
       <c r="BK10" s="1">
-        <v>1693.970000</v>
+        <v>1693.97</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1060.670000</v>
+        <v>-1060.67</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>41917.192189</v>
+        <v>41917.192189000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.643664</v>
+        <v>11.643663999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1987.040000</v>
+        <v>1987.04</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1836.170000</v>
+        <v>-1836.17</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>41928.539165</v>
+        <v>41928.539165000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>11.646816</v>
+        <v>11.646815999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2371.150000</v>
+        <v>2371.15</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2731.830000</v>
+        <v>-2731.83</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>41939.398607</v>
+        <v>41939.398607000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>11.649833</v>
+        <v>11.649832999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2857.130000</v>
+        <v>2857.13</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3712.690000</v>
+        <v>-3712.69</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>41951.420639</v>
+        <v>41951.420639000004</v>
       </c>
       <c r="CD10" s="1">
         <v>11.653172</v>
       </c>
       <c r="CE10" s="1">
-        <v>4277.590000</v>
+        <v>4277.59</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6087.710000</v>
+        <v>-6087.71</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>41778.920963</v>
+        <v>41778.920962999997</v>
       </c>
       <c r="B11" s="1">
-        <v>11.605256</v>
+        <v>11.605256000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1256.840000</v>
+        <v>1256.8399999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-280.107000</v>
+        <v>-280.10700000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>41789.316613</v>
+        <v>41789.316613000003</v>
       </c>
       <c r="G11" s="1">
-        <v>11.608144</v>
+        <v>11.608143999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1278.310000</v>
+        <v>1278.31</v>
       </c>
       <c r="I11" s="1">
-        <v>-243.924000</v>
+        <v>-243.92400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>41799.710315</v>
+        <v>41799.710314999997</v>
       </c>
       <c r="L11" s="1">
-        <v>11.611031</v>
+        <v>11.611031000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1310.470000</v>
+        <v>1310.47</v>
       </c>
       <c r="N11" s="1">
-        <v>-192.222000</v>
+        <v>-192.22200000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>41810.263161</v>
+        <v>41810.263161000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>11.613962</v>
+        <v>11.613962000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1322.430000</v>
+        <v>1322.43</v>
       </c>
       <c r="S11" s="1">
-        <v>-177.210000</v>
+        <v>-177.21</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>41820.719357</v>
+        <v>41820.719357000002</v>
       </c>
       <c r="V11" s="1">
         <v>11.616866</v>
       </c>
       <c r="W11" s="1">
-        <v>1336.270000</v>
+        <v>1336.27</v>
       </c>
       <c r="X11" s="1">
-        <v>-166.742000</v>
+        <v>-166.74199999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>41831.184910</v>
+        <v>41831.184910000004</v>
       </c>
       <c r="AA11" s="1">
         <v>11.619774</v>
       </c>
       <c r="AB11" s="1">
-        <v>1354.490000</v>
+        <v>1354.49</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.212000</v>
+        <v>-167.21199999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>41842.054735</v>
+        <v>41842.054734999998</v>
       </c>
       <c r="AF11" s="1">
         <v>11.622793</v>
       </c>
       <c r="AG11" s="1">
-        <v>1368.090000</v>
+        <v>1368.09</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.856000</v>
+        <v>-177.85599999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>41852.560032</v>
+        <v>41852.560032000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>11.625711</v>
+        <v>11.625711000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1389.340000</v>
+        <v>1389.34</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.423000</v>
+        <v>-208.423</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>41863.247301</v>
+        <v>41863.247301000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>11.628680</v>
+        <v>11.628679999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1411.290000</v>
+        <v>1411.29</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.657000</v>
+        <v>-252.65700000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>41873.952982</v>
+        <v>41873.952982000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>11.631654</v>
+        <v>11.631653999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1436.020000</v>
+        <v>1436.02</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.790000</v>
+        <v>-312.79000000000002</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>41884.508807</v>
+        <v>41884.508806999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>11.634586</v>
+        <v>11.634586000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1455.370000</v>
+        <v>1455.37</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.988000</v>
+        <v>-364.988</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>41895.445130</v>
+        <v>41895.44513</v>
       </c>
       <c r="BE11" s="1">
-        <v>11.637624</v>
+        <v>11.637624000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1540.440000</v>
+        <v>1540.44</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.915000</v>
+        <v>-613.91499999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>41906.287642</v>
+        <v>41906.287642000003</v>
       </c>
       <c r="BJ11" s="1">
         <v>11.640635</v>
       </c>
       <c r="BK11" s="1">
-        <v>1693.980000</v>
+        <v>1693.98</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1060.690000</v>
+        <v>-1060.69</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>41917.696124</v>
+        <v>41917.696124000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>11.643804</v>
+        <v>11.643803999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1987.010000</v>
+        <v>1987.01</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1836.080000</v>
+        <v>-1836.08</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>41928.981596</v>
+        <v>41928.981595999998</v>
       </c>
       <c r="BT11" s="1">
         <v>11.646939</v>
       </c>
       <c r="BU11" s="1">
-        <v>2371.280000</v>
+        <v>2371.2800000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2730.920000</v>
+        <v>-2730.92</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>41939.823646</v>
+        <v>41939.823645999997</v>
       </c>
       <c r="BY11" s="1">
         <v>11.649951</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2857.140000</v>
+        <v>2857.14</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3712.540000</v>
+        <v>-3712.54</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>41951.938955</v>
+        <v>41951.938954999998</v>
       </c>
       <c r="CD11" s="1">
         <v>11.653316</v>
       </c>
       <c r="CE11" s="1">
-        <v>4275.110000</v>
+        <v>4275.1099999999997</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6086.760000</v>
+        <v>-6086.76</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>41779.193267</v>
+        <v>41779.193267000002</v>
       </c>
       <c r="B12" s="1">
         <v>11.605331</v>
       </c>
       <c r="C12" s="1">
-        <v>1257.070000</v>
+        <v>1257.07</v>
       </c>
       <c r="D12" s="1">
-        <v>-280.781000</v>
+        <v>-280.78100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>41789.575029</v>
@@ -3066,133 +3482,133 @@
         <v>11.608215</v>
       </c>
       <c r="H12" s="1">
-        <v>1279.010000</v>
+        <v>1279.01</v>
       </c>
       <c r="I12" s="1">
-        <v>-244.999000</v>
+        <v>-244.999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>41800.059499</v>
+        <v>41800.059499000003</v>
       </c>
       <c r="L12" s="1">
-        <v>11.611128</v>
+        <v>11.611128000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1310.540000</v>
+        <v>1310.54</v>
       </c>
       <c r="N12" s="1">
-        <v>-192.182000</v>
+        <v>-192.18199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>41810.609369</v>
+        <v>41810.609368999998</v>
       </c>
       <c r="Q12" s="1">
         <v>11.614058</v>
       </c>
       <c r="R12" s="1">
-        <v>1322.450000</v>
+        <v>1322.45</v>
       </c>
       <c r="S12" s="1">
-        <v>-177.445000</v>
+        <v>-177.44499999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>41821.063584</v>
+        <v>41821.063584000003</v>
       </c>
       <c r="V12" s="1">
-        <v>11.616962</v>
+        <v>11.616961999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1336.080000</v>
+        <v>1336.08</v>
       </c>
       <c r="X12" s="1">
-        <v>-166.567000</v>
+        <v>-166.56700000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>41831.881789</v>
+        <v>41831.881788999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>11.619967</v>
+        <v>11.619967000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1354.520000</v>
+        <v>1354.52</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.246000</v>
+        <v>-167.24600000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>41842.397968</v>
+        <v>41842.397967999997</v>
       </c>
       <c r="AF12" s="1">
         <v>11.622888</v>
       </c>
       <c r="AG12" s="1">
-        <v>1368.030000</v>
+        <v>1368.03</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.854000</v>
+        <v>-177.85400000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>41852.909221</v>
+        <v>41852.909221000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>11.625808</v>
+        <v>11.625807999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1389.370000</v>
+        <v>1389.37</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.428000</v>
+        <v>-208.428</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>41863.606900</v>
+        <v>41863.606899999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>11.628780</v>
+        <v>11.628780000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1411.310000</v>
+        <v>1411.31</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.630000</v>
+        <v>-252.63</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>41874.638457</v>
+        <v>41874.638457000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>11.631844</v>
+        <v>11.631843999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1436.030000</v>
+        <v>1436.03</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.834000</v>
+        <v>-312.834</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>41885.193325</v>
@@ -3201,150 +3617,150 @@
         <v>11.634776</v>
       </c>
       <c r="BA12" s="1">
-        <v>1455.390000</v>
+        <v>1455.39</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.042000</v>
+        <v>-365.04199999999997</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>41895.850824</v>
+        <v>41895.850824000001</v>
       </c>
       <c r="BE12" s="1">
         <v>11.637736</v>
       </c>
       <c r="BF12" s="1">
-        <v>1540.430000</v>
+        <v>1540.43</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.925000</v>
+        <v>-613.92499999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>41906.664617</v>
+        <v>41906.664617000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>11.640740</v>
+        <v>11.640739999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1693.910000</v>
+        <v>1693.91</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1060.690000</v>
+        <v>-1060.69</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>41918.115243</v>
       </c>
       <c r="BO12" s="1">
-        <v>11.643921</v>
+        <v>11.643921000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1987.060000</v>
+        <v>1987.06</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1836.040000</v>
+        <v>-1836.04</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>41929.409646</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.647058</v>
+        <v>11.647057999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2371.930000</v>
+        <v>2371.9299999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2730.760000</v>
+        <v>-2730.76</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>41940.252728</v>
+        <v>41940.252727999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>11.650070</v>
+        <v>11.650069999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2856.830000</v>
+        <v>2856.83</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3711.990000</v>
+        <v>-3711.99</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>41952.491499</v>
+        <v>41952.491499000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>11.653470</v>
+        <v>11.65347</v>
       </c>
       <c r="CE12" s="1">
-        <v>4269.200000</v>
+        <v>4269.2</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6076.330000</v>
+        <v>-6076.33</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>41779.534514</v>
+        <v>41779.534513999999</v>
       </c>
       <c r="B13" s="1">
         <v>11.605426</v>
       </c>
       <c r="C13" s="1">
-        <v>1256.920000</v>
+        <v>1256.92</v>
       </c>
       <c r="D13" s="1">
-        <v>-280.466000</v>
+        <v>-280.46600000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>41789.918262</v>
+        <v>41789.918261999999</v>
       </c>
       <c r="G13" s="1">
         <v>11.608311</v>
       </c>
       <c r="H13" s="1">
-        <v>1278.000000</v>
+        <v>1278</v>
       </c>
       <c r="I13" s="1">
-        <v>-244.921000</v>
+        <v>-244.92099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>41800.402694</v>
+        <v>41800.402693999997</v>
       </c>
       <c r="L13" s="1">
-        <v>11.611223</v>
+        <v>11.611223000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1310.510000</v>
+        <v>1310.51</v>
       </c>
       <c r="N13" s="1">
-        <v>-192.389000</v>
+        <v>-192.38900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>41811.306503</v>
@@ -3353,330 +3769,330 @@
         <v>11.614252</v>
       </c>
       <c r="R13" s="1">
-        <v>1322.410000</v>
+        <v>1322.41</v>
       </c>
       <c r="S13" s="1">
-        <v>-177.381000</v>
+        <v>-177.381</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>41821.747066</v>
+        <v>41821.747066000004</v>
       </c>
       <c r="V13" s="1">
-        <v>11.617152</v>
+        <v>11.617152000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1336.040000</v>
+        <v>1336.04</v>
       </c>
       <c r="X13" s="1">
-        <v>-166.989000</v>
+        <v>-166.989</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>41832.230509</v>
+        <v>41832.230509000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>11.620064</v>
+        <v>11.620063999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1354.520000</v>
+        <v>1354.52</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.229000</v>
+        <v>-167.22900000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>41842.741694</v>
+        <v>41842.741693999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>11.622984</v>
+        <v>11.622984000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1368.100000</v>
+        <v>1368.1</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.822000</v>
+        <v>-177.822</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>41853.255393</v>
+        <v>41853.255392999999</v>
       </c>
       <c r="AK13" s="1">
         <v>11.625904</v>
       </c>
       <c r="AL13" s="1">
-        <v>1389.350000</v>
+        <v>1389.35</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.420000</v>
+        <v>-208.42</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>41864.277986</v>
+        <v>41864.277986000001</v>
       </c>
       <c r="AP13" s="1">
         <v>11.628966</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1411.300000</v>
+        <v>1411.3</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.646000</v>
+        <v>-252.64599999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>41874.918165</v>
+        <v>41874.918165000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>11.631922</v>
+        <v>11.631921999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1435.980000</v>
+        <v>1435.98</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.765000</v>
+        <v>-312.76499999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>41885.614422</v>
+        <v>41885.614421999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>11.634893</v>
       </c>
       <c r="BA13" s="1">
-        <v>1455.380000</v>
+        <v>1455.38</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.015000</v>
+        <v>-365.01499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>41896.211913</v>
+        <v>41896.211912999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>11.637837</v>
+        <v>11.637836999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1540.420000</v>
+        <v>1540.42</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.913000</v>
+        <v>-613.91300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>41907.037098</v>
+        <v>41907.037098000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>11.640844</v>
       </c>
       <c r="BK13" s="1">
-        <v>1693.940000</v>
+        <v>1693.94</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1060.720000</v>
+        <v>-1060.72</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>41918.513588</v>
+        <v>41918.513588000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>11.644032</v>
+        <v>11.644031999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1987.020000</v>
+        <v>1987.02</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1835.990000</v>
+        <v>-1835.99</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>41929.832236</v>
+        <v>41929.832236000002</v>
       </c>
       <c r="BT13" s="1">
         <v>11.647176</v>
       </c>
       <c r="BU13" s="1">
-        <v>2372.050000</v>
+        <v>2372.0500000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2730.030000</v>
+        <v>-2730.03</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>41940.670318</v>
+        <v>41940.670317999997</v>
       </c>
       <c r="BY13" s="1">
         <v>11.650186</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2856.440000</v>
+        <v>2856.44</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3712.050000</v>
+        <v>-3712.05</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>41953.010782</v>
+        <v>41953.010781999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.653614</v>
+        <v>11.653613999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4278.770000</v>
+        <v>4278.7700000000004</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6088.030000</v>
+        <v>-6088.03</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>41779.874770</v>
+        <v>41779.874770000002</v>
       </c>
       <c r="B14" s="1">
         <v>11.605521</v>
       </c>
       <c r="C14" s="1">
-        <v>1257.220000</v>
+        <v>1257.22</v>
       </c>
       <c r="D14" s="1">
-        <v>-280.600000</v>
+        <v>-280.60000000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>41790.624564</v>
+        <v>41790.624563999998</v>
       </c>
       <c r="G14" s="1">
-        <v>11.608507</v>
+        <v>11.608506999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1278.860000</v>
+        <v>1278.8599999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-243.714000</v>
+        <v>-243.714</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>41801.098619</v>
+        <v>41801.098618999997</v>
       </c>
       <c r="L14" s="1">
         <v>11.611416</v>
       </c>
       <c r="M14" s="1">
-        <v>1310.360000</v>
+        <v>1310.3599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-192.258000</v>
+        <v>-192.25800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>41811.656463</v>
+        <v>41811.656462999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.614349</v>
+        <v>11.614349000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1322.370000</v>
+        <v>1322.37</v>
       </c>
       <c r="S14" s="1">
-        <v>-177.404000</v>
+        <v>-177.404</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>41822.095722</v>
+        <v>41822.095721999998</v>
       </c>
       <c r="V14" s="1">
-        <v>11.617249</v>
+        <v>11.617248999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1336.020000</v>
+        <v>1336.02</v>
       </c>
       <c r="X14" s="1">
-        <v>-166.908000</v>
+        <v>-166.90799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>41832.578670</v>
+        <v>41832.578670000003</v>
       </c>
       <c r="AA14" s="1">
         <v>11.620161</v>
       </c>
       <c r="AB14" s="1">
-        <v>1354.510000</v>
+        <v>1354.51</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.110000</v>
+        <v>-167.11</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>41843.412783</v>
       </c>
       <c r="AF14" s="1">
-        <v>11.623170</v>
+        <v>11.62317</v>
       </c>
       <c r="AG14" s="1">
-        <v>1368.060000</v>
+        <v>1368.06</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.860000</v>
+        <v>-177.86</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>41853.921024</v>
+        <v>41853.921024000003</v>
       </c>
       <c r="AK14" s="1">
         <v>11.626089</v>
       </c>
       <c r="AL14" s="1">
-        <v>1389.300000</v>
+        <v>1389.3</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.413000</v>
+        <v>-208.41300000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>41864.720449</v>
@@ -3685,754 +4101,754 @@
         <v>11.629089</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1411.300000</v>
+        <v>1411.3</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.633000</v>
+        <v>-252.63300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>41875.314500</v>
+        <v>41875.3145</v>
       </c>
       <c r="AU14" s="1">
-        <v>11.632032</v>
+        <v>11.632032000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1435.990000</v>
+        <v>1435.99</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.778000</v>
+        <v>-312.77800000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>41885.989366</v>
+        <v>41885.989366000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>11.634997</v>
       </c>
       <c r="BA14" s="1">
-        <v>1455.370000</v>
+        <v>1455.37</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.048000</v>
+        <v>-365.048</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>41896.571511</v>
+        <v>41896.571511000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>11.637937</v>
+        <v>11.637937000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1540.400000</v>
+        <v>1540.4</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.875000</v>
+        <v>-613.875</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>41907.462665</v>
+        <v>41907.462664999999</v>
       </c>
       <c r="BJ14" s="1">
         <v>11.640962</v>
       </c>
       <c r="BK14" s="1">
-        <v>1693.890000</v>
+        <v>1693.89</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1060.640000</v>
+        <v>-1060.6400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>41918.931199</v>
+        <v>41918.931198999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.644148</v>
+        <v>11.644147999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1986.990000</v>
+        <v>1986.99</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1836.050000</v>
+        <v>-1836.05</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>41930.248876</v>
+        <v>41930.248875999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>11.647291</v>
+        <v>11.647290999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2372.800000</v>
+        <v>2372.8000000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2729.820000</v>
+        <v>-2729.82</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>41941.085501</v>
+        <v>41941.085501000001</v>
       </c>
       <c r="BY14" s="1">
         <v>11.650302</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2857.120000</v>
+        <v>2857.12</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3712.830000</v>
+        <v>-3712.83</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>41953.556381</v>
+        <v>41953.556381000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>11.653766</v>
+        <v>11.653765999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4272.070000</v>
+        <v>4272.07</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6084.820000</v>
+        <v>-6084.82</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>41780.555779</v>
+        <v>41780.555779000002</v>
       </c>
       <c r="B15" s="1">
-        <v>11.605710</v>
+        <v>11.60571</v>
       </c>
       <c r="C15" s="1">
-        <v>1256.670000</v>
+        <v>1256.67</v>
       </c>
       <c r="D15" s="1">
-        <v>-280.471000</v>
+        <v>-280.471</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>41790.949941</v>
+        <v>41790.949940999999</v>
       </c>
       <c r="G15" s="1">
         <v>11.608597</v>
       </c>
       <c r="H15" s="1">
-        <v>1278.720000</v>
+        <v>1278.72</v>
       </c>
       <c r="I15" s="1">
-        <v>-243.837000</v>
+        <v>-243.83699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>41801.444824</v>
+        <v>41801.444823999998</v>
       </c>
       <c r="L15" s="1">
-        <v>11.611512</v>
+        <v>11.611511999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1310.390000</v>
+        <v>1310.3900000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-192.372000</v>
+        <v>-192.37200000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>41812.002170</v>
+        <v>41812.00217</v>
       </c>
       <c r="Q15" s="1">
         <v>11.614445</v>
       </c>
       <c r="R15" s="1">
-        <v>1322.340000</v>
+        <v>1322.34</v>
       </c>
       <c r="S15" s="1">
-        <v>-177.336000</v>
+        <v>-177.33600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>41822.437465</v>
+        <v>41822.437465000003</v>
       </c>
       <c r="V15" s="1">
-        <v>11.617344</v>
+        <v>11.617343999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1336.130000</v>
+        <v>1336.13</v>
       </c>
       <c r="X15" s="1">
-        <v>-166.743000</v>
+        <v>-166.74299999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>41833.241819</v>
+        <v>41833.241819000003</v>
       </c>
       <c r="AA15" s="1">
         <v>11.620345</v>
       </c>
       <c r="AB15" s="1">
-        <v>1354.430000</v>
+        <v>1354.43</v>
       </c>
       <c r="AC15" s="1">
-        <v>-167.131000</v>
+        <v>-167.131</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>41843.774366</v>
+        <v>41843.774365999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>11.623271</v>
+        <v>11.623271000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1368.000000</v>
+        <v>1368</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.807000</v>
+        <v>-177.80699999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>41854.304929</v>
+        <v>41854.304928999998</v>
       </c>
       <c r="AK15" s="1">
         <v>11.626196</v>
       </c>
       <c r="AL15" s="1">
-        <v>1389.310000</v>
+        <v>1389.31</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.431000</v>
+        <v>-208.43100000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>41865.078033</v>
+        <v>41865.078032999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>11.629188</v>
+        <v>11.629187999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1411.280000</v>
+        <v>1411.28</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.632000</v>
+        <v>-252.63200000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>41875.681011</v>
+        <v>41875.681011000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>11.632134</v>
+        <v>11.632134000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1435.980000</v>
+        <v>1435.98</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.787000</v>
+        <v>-312.78699999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>41886.350981</v>
+        <v>41886.350981000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>11.635097</v>
       </c>
       <c r="BA15" s="1">
-        <v>1455.380000</v>
+        <v>1455.38</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.989000</v>
+        <v>-364.98899999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>41896.993111</v>
+        <v>41896.993111000003</v>
       </c>
       <c r="BE15" s="1">
         <v>11.638054</v>
       </c>
       <c r="BF15" s="1">
-        <v>1540.400000</v>
+        <v>1540.4</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.905000</v>
+        <v>-613.90499999999997</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>41907.814654</v>
+        <v>41907.814654000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>11.641060</v>
+        <v>11.64106</v>
       </c>
       <c r="BK15" s="1">
-        <v>1693.900000</v>
+        <v>1693.9</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1060.720000</v>
+        <v>-1060.72</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>41919.330443</v>
+        <v>41919.330442999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>11.644258</v>
+        <v>11.644258000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1987.070000</v>
+        <v>1987.07</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1835.990000</v>
+        <v>-1835.99</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>41930.676924</v>
+        <v>41930.676923999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>11.647410</v>
+        <v>11.647410000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2373.310000</v>
+        <v>2373.31</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2729.690000</v>
+        <v>-2729.69</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>41941.542284</v>
+        <v>41941.542284000003</v>
       </c>
       <c r="BY15" s="1">
         <v>11.650428</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2856.580000</v>
+        <v>2856.58</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3712.460000</v>
+        <v>-3712.46</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>41954.215595</v>
+        <v>41954.215595000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>11.653949</v>
+        <v>11.653949000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4272.910000</v>
+        <v>4272.91</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6072.780000</v>
+        <v>-6072.78</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>41780.899504</v>
+        <v>41780.899504000001</v>
       </c>
       <c r="B16" s="1">
         <v>11.605805</v>
       </c>
       <c r="C16" s="1">
-        <v>1256.960000</v>
+        <v>1256.96</v>
       </c>
       <c r="D16" s="1">
-        <v>-280.443000</v>
+        <v>-280.44299999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>41791.295650</v>
+        <v>41791.29565</v>
       </c>
       <c r="G16" s="1">
-        <v>11.608693</v>
+        <v>11.608693000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1277.580000</v>
+        <v>1277.58</v>
       </c>
       <c r="I16" s="1">
-        <v>-244.308000</v>
+        <v>-244.30799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>41801.788548</v>
+        <v>41801.788547999997</v>
       </c>
       <c r="L16" s="1">
         <v>11.611608</v>
       </c>
       <c r="M16" s="1">
-        <v>1310.410000</v>
+        <v>1310.4100000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-192.135000</v>
+        <v>-192.13499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>41812.659369</v>
+        <v>41812.659369000001</v>
       </c>
       <c r="Q16" s="1">
         <v>11.614628</v>
       </c>
       <c r="R16" s="1">
-        <v>1322.430000</v>
+        <v>1322.43</v>
       </c>
       <c r="S16" s="1">
-        <v>-177.236000</v>
+        <v>-177.23599999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>41823.185929</v>
+        <v>41823.185928999999</v>
       </c>
       <c r="V16" s="1">
         <v>11.617552</v>
       </c>
       <c r="W16" s="1">
-        <v>1336.060000</v>
+        <v>1336.06</v>
       </c>
       <c r="X16" s="1">
-        <v>-166.851000</v>
+        <v>-166.851</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>41833.625724</v>
+        <v>41833.625723999998</v>
       </c>
       <c r="AA16" s="1">
         <v>11.620452</v>
       </c>
       <c r="AB16" s="1">
-        <v>1354.300000</v>
+        <v>1354.3</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.228000</v>
+        <v>-167.22800000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>41844.116109</v>
+        <v>41844.116109000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>11.623366</v>
+        <v>11.623366000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1368.020000</v>
+        <v>1368.02</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.847000</v>
+        <v>-177.84700000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>41854.654644</v>
+        <v>41854.654644000002</v>
       </c>
       <c r="AK16" s="1">
         <v>11.626293</v>
       </c>
       <c r="AL16" s="1">
-        <v>1389.340000</v>
+        <v>1389.34</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.445000</v>
+        <v>-208.44499999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>41865.440610</v>
+        <v>41865.440609999998</v>
       </c>
       <c r="AP16" s="1">
         <v>11.629289</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1411.310000</v>
+        <v>1411.31</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.636000</v>
+        <v>-252.636</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>41876.108595</v>
+        <v>41876.108594999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>11.632252</v>
+        <v>11.632251999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1436.000000</v>
+        <v>1436</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.786000</v>
+        <v>-312.786</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>41886.782005</v>
+        <v>41886.782005000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>11.635217</v>
+        <v>11.635217000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1455.370000</v>
+        <v>1455.37</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.033000</v>
+        <v>-365.03300000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>41897.296662</v>
+        <v>41897.296662000001</v>
       </c>
       <c r="BE16" s="1">
         <v>11.638138</v>
       </c>
       <c r="BF16" s="1">
-        <v>1540.400000</v>
+        <v>1540.4</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.924000</v>
+        <v>-613.92399999999998</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>41908.189802</v>
+        <v>41908.189802000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>11.641164</v>
       </c>
       <c r="BK16" s="1">
-        <v>1693.990000</v>
+        <v>1693.99</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1060.720000</v>
+        <v>-1060.72</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>41919.739181</v>
+        <v>41919.739180999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.644372</v>
+        <v>11.644372000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1987.110000</v>
+        <v>1987.11</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1836.160000</v>
+        <v>-1836.16</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>41931.090586</v>
+        <v>41931.090585999998</v>
       </c>
       <c r="BT16" s="1">
         <v>11.647525</v>
       </c>
       <c r="BU16" s="1">
-        <v>2373.810000</v>
+        <v>2373.81</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2730.060000</v>
+        <v>-2730.06</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>41941.989184</v>
+        <v>41941.989183999998</v>
       </c>
       <c r="BY16" s="1">
         <v>11.650553</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2857.060000</v>
+        <v>2857.06</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3712.500000</v>
+        <v>-3712.5</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>41954.625260</v>
+        <v>41954.625260000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>11.654063</v>
+        <v>11.654063000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4277.280000</v>
+        <v>4277.28</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6086.570000</v>
+        <v>-6086.57</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>41781.241744</v>
+        <v>41781.241743999999</v>
       </c>
       <c r="B17" s="1">
-        <v>11.605900</v>
+        <v>11.6059</v>
       </c>
       <c r="C17" s="1">
-        <v>1256.640000</v>
+        <v>1256.6400000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-280.428000</v>
+        <v>-280.428</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>41791.952354</v>
+        <v>41791.952354000001</v>
       </c>
       <c r="G17" s="1">
         <v>11.608876</v>
       </c>
       <c r="H17" s="1">
-        <v>1277.230000</v>
+        <v>1277.23</v>
       </c>
       <c r="I17" s="1">
-        <v>-243.543000</v>
+        <v>-243.54300000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>41802.443765</v>
+        <v>41802.443765000004</v>
       </c>
       <c r="L17" s="1">
-        <v>11.611790</v>
+        <v>11.611789999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1310.240000</v>
+        <v>1310.24</v>
       </c>
       <c r="N17" s="1">
-        <v>-192.383000</v>
+        <v>-192.38300000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>41813.048727</v>
+        <v>41813.048727000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>11.614736</v>
+        <v>11.614736000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1322.470000</v>
+        <v>1322.47</v>
       </c>
       <c r="S17" s="1">
-        <v>-177.311000</v>
+        <v>-177.31100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>41823.483528</v>
+        <v>41823.483527999997</v>
       </c>
       <c r="V17" s="1">
-        <v>11.617634</v>
+        <v>11.617634000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1336.050000</v>
+        <v>1336.05</v>
       </c>
       <c r="X17" s="1">
-        <v>-166.672000</v>
+        <v>-166.672</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>41833.974938</v>
+        <v>41833.974937999999</v>
       </c>
       <c r="AA17" s="1">
         <v>11.620549</v>
       </c>
       <c r="AB17" s="1">
-        <v>1354.320000</v>
+        <v>1354.32</v>
       </c>
       <c r="AC17" s="1">
-        <v>-167.213000</v>
+        <v>-167.21299999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>41844.466815</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.623463</v>
+        <v>11.623462999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1368.050000</v>
+        <v>1368.05</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.845000</v>
+        <v>-177.845</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>41855.001311</v>
@@ -4441,180 +4857,180 @@
         <v>11.626389</v>
       </c>
       <c r="AL17" s="1">
-        <v>1389.330000</v>
+        <v>1389.33</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.444000</v>
+        <v>-208.44399999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>41865.865184</v>
+        <v>41865.865184000002</v>
       </c>
       <c r="AP17" s="1">
         <v>11.629407</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1411.300000</v>
+        <v>1411.3</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.631000</v>
+        <v>-252.631</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>41876.408642</v>
+        <v>41876.408642000002</v>
       </c>
       <c r="AU17" s="1">
         <v>11.632336</v>
       </c>
       <c r="AV17" s="1">
-        <v>1436.000000</v>
+        <v>1436</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.785000</v>
+        <v>-312.78500000000003</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>41887.067668</v>
+        <v>41887.067668000003</v>
       </c>
       <c r="AZ17" s="1">
         <v>11.635297</v>
       </c>
       <c r="BA17" s="1">
-        <v>1455.390000</v>
+        <v>1455.39</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.009000</v>
+        <v>-365.00900000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>41897.657750</v>
+        <v>41897.657749999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>11.638238</v>
+        <v>11.638237999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1540.430000</v>
+        <v>1540.43</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.900000</v>
+        <v>-613.9</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>41908.565271</v>
+        <v>41908.565270999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.641268</v>
       </c>
       <c r="BK17" s="1">
-        <v>1693.910000</v>
+        <v>1693.91</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1060.660000</v>
+        <v>-1060.6600000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>41920.147849</v>
+        <v>41920.147849000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>11.644486</v>
+        <v>11.644486000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1986.900000</v>
+        <v>1986.9</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1835.840000</v>
+        <v>-1835.84</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>41931.522140</v>
+        <v>41931.522140000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>11.647645</v>
+        <v>11.647645000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2374.430000</v>
+        <v>2374.4299999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2729.900000</v>
+        <v>-2729.9</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>41942.446027</v>
+        <v>41942.446026999998</v>
       </c>
       <c r="BY17" s="1">
         <v>11.650679</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2856.810000</v>
+        <v>2856.81</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3712.260000</v>
+        <v>-3712.26</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>41955.142090</v>
+        <v>41955.142090000001</v>
       </c>
       <c r="CD17" s="1">
         <v>11.654206</v>
       </c>
       <c r="CE17" s="1">
-        <v>4290.210000</v>
+        <v>4290.21</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6079.680000</v>
+        <v>-6079.68</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>41781.897456</v>
+        <v>41781.897455999999</v>
       </c>
       <c r="B18" s="1">
         <v>11.606083</v>
       </c>
       <c r="C18" s="1">
-        <v>1256.990000</v>
+        <v>1256.99</v>
       </c>
       <c r="D18" s="1">
-        <v>-280.490000</v>
+        <v>-280.49</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>41792.329810</v>
+        <v>41792.329810000003</v>
       </c>
       <c r="G18" s="1">
         <v>11.608981</v>
       </c>
       <c r="H18" s="1">
-        <v>1277.530000</v>
+        <v>1277.53</v>
       </c>
       <c r="I18" s="1">
-        <v>-244.520000</v>
+        <v>-244.52</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>41802.825652</v>
@@ -4623,133 +5039,133 @@
         <v>11.611896</v>
       </c>
       <c r="M18" s="1">
-        <v>1310.630000</v>
+        <v>1310.6300000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-192.284000</v>
+        <v>-192.28399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>41813.397878</v>
+        <v>41813.397878000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>11.614833</v>
+        <v>11.614833000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1322.430000</v>
+        <v>1322.43</v>
       </c>
       <c r="S18" s="1">
-        <v>-177.487000</v>
+        <v>-177.48699999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>41823.829735</v>
+        <v>41823.829734999999</v>
       </c>
       <c r="V18" s="1">
-        <v>11.617730</v>
+        <v>11.61773</v>
       </c>
       <c r="W18" s="1">
-        <v>1336.030000</v>
+        <v>1336.03</v>
       </c>
       <c r="X18" s="1">
-        <v>-166.868000</v>
+        <v>-166.86799999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>41834.321610</v>
+        <v>41834.321609999999</v>
       </c>
       <c r="AA18" s="1">
         <v>11.620645</v>
       </c>
       <c r="AB18" s="1">
-        <v>1354.530000</v>
+        <v>1354.53</v>
       </c>
       <c r="AC18" s="1">
-        <v>-167.204000</v>
+        <v>-167.20400000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>41844.888877</v>
+        <v>41844.888876999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>11.623580</v>
+        <v>11.62358</v>
       </c>
       <c r="AG18" s="1">
-        <v>1368.090000</v>
+        <v>1368.09</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.794000</v>
+        <v>-177.79400000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>41855.539478</v>
+        <v>41855.539477999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>11.626539</v>
+        <v>11.626538999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1389.300000</v>
+        <v>1389.3</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.420000</v>
+        <v>-208.42</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>41866.159348</v>
+        <v>41866.159348000001</v>
       </c>
       <c r="AP18" s="1">
         <v>11.629489</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1411.280000</v>
+        <v>1411.28</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.670000</v>
+        <v>-252.67</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>41876.771753</v>
+        <v>41876.771753000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>11.632437</v>
+        <v>11.632436999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1436.010000</v>
+        <v>1436.01</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.835000</v>
+        <v>-312.83499999999998</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>41887.427763</v>
       </c>
       <c r="AZ18" s="1">
-        <v>11.635397</v>
+        <v>11.635396999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1455.370000</v>
+        <v>1455.37</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.030000</v>
+        <v>-365.03</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>41898.019365</v>
@@ -4758,135 +5174,135 @@
         <v>11.638339</v>
       </c>
       <c r="BF18" s="1">
-        <v>1540.390000</v>
+        <v>1540.39</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.881000</v>
+        <v>-613.88099999999997</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>41909.318694</v>
+        <v>41909.318694000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>11.641477</v>
       </c>
       <c r="BK18" s="1">
-        <v>1693.940000</v>
+        <v>1693.94</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1060.670000</v>
+        <v>-1060.67</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>41920.965255</v>
+        <v>41920.965255000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>11.644713</v>
+        <v>11.644712999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1986.950000</v>
+        <v>1986.95</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1836.080000</v>
+        <v>-1836.08</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>41931.946682</v>
+        <v>41931.946682000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>11.647763</v>
+        <v>11.647762999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2374.790000</v>
+        <v>2374.79</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2730.080000</v>
+        <v>-2730.08</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>41942.895372</v>
+        <v>41942.895371999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>11.650804</v>
+        <v>11.650804000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2855.910000</v>
+        <v>2855.91</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3712.150000</v>
+        <v>-3712.15</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>41955.982809</v>
+        <v>41955.982809000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>11.654440</v>
+        <v>11.654439999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4281.050000</v>
+        <v>4281.05</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6066.090000</v>
+        <v>-6066.09</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>41782.267471</v>
+        <v>41782.267470999999</v>
       </c>
       <c r="B19" s="1">
         <v>11.606185</v>
       </c>
       <c r="C19" s="1">
-        <v>1256.940000</v>
+        <v>1256.94</v>
       </c>
       <c r="D19" s="1">
-        <v>-280.602000</v>
+        <v>-280.60199999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>41792.674810</v>
+        <v>41792.674809999997</v>
       </c>
       <c r="G19" s="1">
         <v>11.609076</v>
       </c>
       <c r="H19" s="1">
-        <v>1277.020000</v>
+        <v>1277.02</v>
       </c>
       <c r="I19" s="1">
-        <v>-244.962000</v>
+        <v>-244.96199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>41803.172851</v>
+        <v>41803.172851000003</v>
       </c>
       <c r="L19" s="1">
-        <v>11.611992</v>
+        <v>11.611992000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1310.260000</v>
+        <v>1310.26</v>
       </c>
       <c r="N19" s="1">
-        <v>-192.182000</v>
+        <v>-192.18199999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>41813.745573</v>
@@ -4895,300 +5311,300 @@
         <v>11.614929</v>
       </c>
       <c r="R19" s="1">
-        <v>1322.330000</v>
+        <v>1322.33</v>
       </c>
       <c r="S19" s="1">
-        <v>-177.397000</v>
+        <v>-177.39699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>41824.252359</v>
+        <v>41824.252358999998</v>
       </c>
       <c r="V19" s="1">
         <v>11.617848</v>
       </c>
       <c r="W19" s="1">
-        <v>1336.240000</v>
+        <v>1336.24</v>
       </c>
       <c r="X19" s="1">
-        <v>-166.729000</v>
+        <v>-166.72900000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>41834.738777</v>
+        <v>41834.738776999999</v>
       </c>
       <c r="AA19" s="1">
         <v>11.620761</v>
       </c>
       <c r="AB19" s="1">
-        <v>1354.620000</v>
+        <v>1354.62</v>
       </c>
       <c r="AC19" s="1">
-        <v>-167.241000</v>
+        <v>-167.24100000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>41845.168619</v>
+        <v>41845.168618999996</v>
       </c>
       <c r="AF19" s="1">
-        <v>11.623658</v>
+        <v>11.623658000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1368.050000</v>
+        <v>1368.05</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.817000</v>
+        <v>-177.81700000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>41855.701167</v>
+        <v>41855.701166999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>11.626584</v>
+        <v>11.626583999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1389.360000</v>
+        <v>1389.36</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.442000</v>
+        <v>-208.44200000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>41866.519409</v>
       </c>
       <c r="AP19" s="1">
-        <v>11.629589</v>
+        <v>11.629588999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1411.320000</v>
+        <v>1411.32</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.609000</v>
+        <v>-252.60900000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>41877.137799</v>
+        <v>41877.137798999996</v>
       </c>
       <c r="AU19" s="1">
         <v>11.632538</v>
       </c>
       <c r="AV19" s="1">
-        <v>1435.990000</v>
+        <v>1435.99</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.798000</v>
+        <v>-312.798</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>41887.840932</v>
+        <v>41887.840931999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>11.635511</v>
+        <v>11.635510999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1455.390000</v>
+        <v>1455.39</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.014000</v>
+        <v>-365.01400000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>41898.740549</v>
+        <v>41898.740549000002</v>
       </c>
       <c r="BE19" s="1">
         <v>11.638539</v>
       </c>
       <c r="BF19" s="1">
-        <v>1540.370000</v>
+        <v>1540.37</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.853000</v>
+        <v>-613.85299999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>41909.691190</v>
+        <v>41909.691189999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>11.641581</v>
       </c>
       <c r="BK19" s="1">
-        <v>1693.950000</v>
+        <v>1693.95</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1060.630000</v>
+        <v>-1060.6300000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>41921.363255</v>
+        <v>41921.363254999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>11.644823</v>
+        <v>11.644823000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1987.030000</v>
+        <v>1987.03</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1835.860000</v>
+        <v>-1835.86</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>41932.357864</v>
+        <v>41932.357863999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>11.647877</v>
+        <v>11.647876999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2375.370000</v>
+        <v>2375.37</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2730.340000</v>
+        <v>-2730.34</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>41943.673626</v>
+        <v>41943.673626000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>11.651020</v>
+        <v>11.651020000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2855.930000</v>
+        <v>2855.93</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3712.170000</v>
+        <v>-3712.17</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>41956.211010</v>
+        <v>41956.211009999999</v>
       </c>
       <c r="CD19" s="1">
         <v>11.654503</v>
       </c>
       <c r="CE19" s="1">
-        <v>4271.490000</v>
+        <v>4271.49</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6085.280000</v>
+        <v>-6085.28</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>41782.611729</v>
+        <v>41782.611728999997</v>
       </c>
       <c r="B20" s="1">
-        <v>11.606281</v>
+        <v>11.606280999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1256.630000</v>
+        <v>1256.6300000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-280.500000</v>
+        <v>-280.5</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>41793.020769</v>
+        <v>41793.020769000002</v>
       </c>
       <c r="G20" s="1">
-        <v>11.609172</v>
+        <v>11.609171999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1277.700000</v>
+        <v>1277.7</v>
       </c>
       <c r="I20" s="1">
-        <v>-244.397000</v>
+        <v>-244.39699999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>41803.506676</v>
+        <v>41803.506675999997</v>
       </c>
       <c r="L20" s="1">
         <v>11.612085</v>
       </c>
       <c r="M20" s="1">
-        <v>1310.460000</v>
+        <v>1310.46</v>
       </c>
       <c r="N20" s="1">
-        <v>-192.264000</v>
+        <v>-192.26400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>41814.174612</v>
+        <v>41814.174612000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>11.615049</v>
+        <v>11.615049000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1322.370000</v>
+        <v>1322.37</v>
       </c>
       <c r="S20" s="1">
-        <v>-177.431000</v>
+        <v>-177.43100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>41824.525127</v>
+        <v>41824.525127000001</v>
       </c>
       <c r="V20" s="1">
         <v>11.617924</v>
       </c>
       <c r="W20" s="1">
-        <v>1336.190000</v>
+        <v>1336.19</v>
       </c>
       <c r="X20" s="1">
-        <v>-166.750000</v>
+        <v>-166.75</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>41835.029433</v>
+        <v>41835.029433000003</v>
       </c>
       <c r="AA20" s="1">
         <v>11.620842</v>
       </c>
       <c r="AB20" s="1">
-        <v>1354.580000</v>
+        <v>1354.58</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.178000</v>
+        <v>-167.178</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>41845.515323</v>
@@ -5197,784 +5613,784 @@
         <v>11.623754</v>
       </c>
       <c r="AG20" s="1">
-        <v>1368.050000</v>
+        <v>1368.05</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.824000</v>
+        <v>-177.82400000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>41856.046877</v>
+        <v>41856.046877000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.626680</v>
+        <v>11.62668</v>
       </c>
       <c r="AL20" s="1">
-        <v>1389.370000</v>
+        <v>1389.37</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.417000</v>
+        <v>-208.417</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>41866.879999</v>
+        <v>41866.879998999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>11.629689</v>
+        <v>11.629689000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1411.250000</v>
+        <v>1411.25</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.592000</v>
+        <v>-252.59200000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>41877.867378</v>
+        <v>41877.867378000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>11.632741</v>
+        <v>11.632740999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1436.010000</v>
+        <v>1436.01</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.799000</v>
+        <v>-312.79899999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>41888.503586</v>
+        <v>41888.503585999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>11.635695</v>
       </c>
       <c r="BA20" s="1">
-        <v>1455.380000</v>
+        <v>1455.38</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.986000</v>
+        <v>-364.98599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>41899.102100</v>
+        <v>41899.102099999996</v>
       </c>
       <c r="BE20" s="1">
         <v>11.638639</v>
       </c>
       <c r="BF20" s="1">
-        <v>1540.380000</v>
+        <v>1540.38</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.846000</v>
+        <v>-613.846</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>41910.065174</v>
+        <v>41910.065174000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.641685</v>
+        <v>11.641685000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1693.930000</v>
+        <v>1693.93</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1060.630000</v>
+        <v>-1060.6300000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>41922.092664</v>
+        <v>41922.092664000003</v>
       </c>
       <c r="BO20" s="1">
         <v>11.645026</v>
       </c>
       <c r="BP20" s="1">
-        <v>1986.900000</v>
+        <v>1986.9</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1835.920000</v>
+        <v>-1835.92</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>41933.106363</v>
+        <v>41933.106362999999</v>
       </c>
       <c r="BT20" s="1">
         <v>11.648085</v>
       </c>
       <c r="BU20" s="1">
-        <v>2375.650000</v>
+        <v>2375.65</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2730.860000</v>
+        <v>-2730.86</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>41943.801066</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.651056</v>
+        <v>11.651056000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2856.380000</v>
+        <v>2856.38</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3711.500000</v>
+        <v>-3711.5</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>41956.741192</v>
+        <v>41956.741192000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>11.654650</v>
+        <v>11.65465</v>
       </c>
       <c r="CE20" s="1">
-        <v>4290.960000</v>
+        <v>4290.96</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6076.580000</v>
+        <v>-6076.58</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>41782.952979</v>
+        <v>41782.952979000002</v>
       </c>
       <c r="B21" s="1">
-        <v>11.606376</v>
+        <v>11.606375999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1257.000000</v>
+        <v>1257</v>
       </c>
       <c r="D21" s="1">
-        <v>-280.240000</v>
+        <v>-280.24</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>41793.446304</v>
+        <v>41793.446303999997</v>
       </c>
       <c r="G21" s="1">
-        <v>11.609291</v>
+        <v>11.609291000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1277.960000</v>
+        <v>1277.96</v>
       </c>
       <c r="I21" s="1">
-        <v>-244.274000</v>
+        <v>-244.274</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>41803.930274</v>
+        <v>41803.930273999998</v>
       </c>
       <c r="L21" s="1">
-        <v>11.612203</v>
+        <v>11.612202999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1310.340000</v>
+        <v>1310.3399999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-192.244000</v>
+        <v>-192.244</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>41814.454854</v>
+        <v>41814.454854000003</v>
       </c>
       <c r="Q21" s="1">
         <v>11.615126</v>
       </c>
       <c r="R21" s="1">
-        <v>1322.350000</v>
+        <v>1322.35</v>
       </c>
       <c r="S21" s="1">
-        <v>-177.345000</v>
+        <v>-177.345</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>41824.871970</v>
+        <v>41824.87197</v>
       </c>
       <c r="V21" s="1">
-        <v>11.618020</v>
+        <v>11.61802</v>
       </c>
       <c r="W21" s="1">
-        <v>1336.110000</v>
+        <v>1336.11</v>
       </c>
       <c r="X21" s="1">
-        <v>-166.648000</v>
+        <v>-166.648</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>41835.378120</v>
+        <v>41835.378120000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.620938</v>
+        <v>11.620938000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1354.510000</v>
+        <v>1354.51</v>
       </c>
       <c r="AC21" s="1">
-        <v>-167.176000</v>
+        <v>-167.17599999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>41845.857067</v>
+        <v>41845.857066999997</v>
       </c>
       <c r="AF21" s="1">
         <v>11.623849</v>
       </c>
       <c r="AG21" s="1">
-        <v>1368.050000</v>
+        <v>1368.05</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.840000</v>
+        <v>-177.84</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>41856.743261</v>
+        <v>41856.743261000003</v>
       </c>
       <c r="AK21" s="1">
         <v>11.626873</v>
       </c>
       <c r="AL21" s="1">
-        <v>1389.350000</v>
+        <v>1389.35</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.435000</v>
+        <v>-208.435</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>41867.608127</v>
       </c>
       <c r="AP21" s="1">
-        <v>11.629891</v>
+        <v>11.629891000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1411.320000</v>
+        <v>1411.32</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.636000</v>
+        <v>-252.636</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>41878.230976</v>
+        <v>41878.230975999999</v>
       </c>
       <c r="AU21" s="1">
         <v>11.632842</v>
       </c>
       <c r="AV21" s="1">
-        <v>1436.000000</v>
+        <v>1436</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.781000</v>
+        <v>-312.78100000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>41888.860209</v>
+        <v>41888.860208999999</v>
       </c>
       <c r="AZ21" s="1">
         <v>11.635795</v>
       </c>
       <c r="BA21" s="1">
-        <v>1455.370000</v>
+        <v>1455.37</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.011000</v>
+        <v>-365.01100000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>41899.461700</v>
+        <v>41899.4617</v>
       </c>
       <c r="BE21" s="1">
-        <v>11.638739</v>
+        <v>11.638738999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1540.340000</v>
+        <v>1540.34</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.838000</v>
+        <v>-613.83799999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>41910.771013</v>
+        <v>41910.771012999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>11.641881</v>
       </c>
       <c r="BK21" s="1">
-        <v>1693.940000</v>
+        <v>1693.94</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1060.540000</v>
+        <v>-1060.54</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>41922.593653</v>
+        <v>41922.593653000004</v>
       </c>
       <c r="BO21" s="1">
         <v>11.645165</v>
       </c>
       <c r="BP21" s="1">
-        <v>1987.010000</v>
+        <v>1987.01</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1835.830000</v>
+        <v>-1835.83</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>41933.219911</v>
       </c>
       <c r="BT21" s="1">
-        <v>11.648117</v>
+        <v>11.648116999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2375.820000</v>
+        <v>2375.8200000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2731.240000</v>
+        <v>-2731.24</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>41944.238042</v>
+        <v>41944.238041999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>11.651177</v>
+        <v>11.651177000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2856.960000</v>
+        <v>2856.96</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3711.920000</v>
+        <v>-3711.92</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>41957.282359</v>
+        <v>41957.282358999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>11.654801</v>
+        <v>11.654801000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4272.710000</v>
+        <v>4272.71</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6072.740000</v>
+        <v>-6072.74</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>41783.383965</v>
+        <v>41783.383965000001</v>
       </c>
       <c r="B22" s="1">
         <v>11.606496</v>
       </c>
       <c r="C22" s="1">
-        <v>1257.030000</v>
+        <v>1257.03</v>
       </c>
       <c r="D22" s="1">
-        <v>-280.341000</v>
+        <v>-280.34100000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>41793.722111</v>
+        <v>41793.722111000003</v>
       </c>
       <c r="G22" s="1">
-        <v>11.609367</v>
+        <v>11.609367000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1277.570000</v>
+        <v>1277.57</v>
       </c>
       <c r="I22" s="1">
-        <v>-244.740000</v>
+        <v>-244.74</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>41804.226354</v>
+        <v>41804.226353999999</v>
       </c>
       <c r="L22" s="1">
         <v>11.612285</v>
       </c>
       <c r="M22" s="1">
-        <v>1310.270000</v>
+        <v>1310.27</v>
       </c>
       <c r="N22" s="1">
-        <v>-192.389000</v>
+        <v>-192.38900000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>41814.801093</v>
+        <v>41814.801093000002</v>
       </c>
       <c r="Q22" s="1">
         <v>11.615223</v>
       </c>
       <c r="R22" s="1">
-        <v>1322.400000</v>
+        <v>1322.4</v>
       </c>
       <c r="S22" s="1">
-        <v>-177.346000</v>
+        <v>-177.346</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>41825.215596</v>
+        <v>41825.215596000002</v>
       </c>
       <c r="V22" s="1">
         <v>11.618115</v>
       </c>
       <c r="W22" s="1">
-        <v>1336.180000</v>
+        <v>1336.18</v>
       </c>
       <c r="X22" s="1">
-        <v>-166.641000</v>
+        <v>-166.64099999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>41835.727769</v>
+        <v>41835.727768999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.621035</v>
+        <v>11.621034999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1354.520000</v>
+        <v>1354.52</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.229000</v>
+        <v>-167.22900000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>41846.543569</v>
+        <v>41846.543569000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>11.624040</v>
+        <v>11.624040000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1368.090000</v>
+        <v>1368.09</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.809000</v>
+        <v>-177.809</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>41857.091452</v>
+        <v>41857.091452000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>11.626970</v>
+        <v>11.62697</v>
       </c>
       <c r="AL22" s="1">
-        <v>1389.330000</v>
+        <v>1389.33</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.430000</v>
+        <v>-208.43</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>41867.986613</v>
+        <v>41867.986613000001</v>
       </c>
       <c r="AP22" s="1">
         <v>11.629996</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1411.310000</v>
+        <v>1411.31</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.643000</v>
+        <v>-252.643</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>41878.596000</v>
+        <v>41878.595999999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.632943</v>
+        <v>11.632942999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1436.020000</v>
+        <v>1436.02</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.777000</v>
+        <v>-312.77699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>41889.539729</v>
+        <v>41889.539728999996</v>
       </c>
       <c r="AZ22" s="1">
         <v>11.635983</v>
       </c>
       <c r="BA22" s="1">
-        <v>1455.370000</v>
+        <v>1455.37</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.997000</v>
+        <v>-364.99700000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>41900.131299</v>
+        <v>41900.131299000001</v>
       </c>
       <c r="BE22" s="1">
         <v>11.638925</v>
       </c>
       <c r="BF22" s="1">
-        <v>1540.370000</v>
+        <v>1540.37</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.867000</v>
+        <v>-613.86699999999996</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>41911.192116</v>
+        <v>41911.192115999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>11.641998</v>
+        <v>11.641997999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1693.940000</v>
+        <v>1693.94</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1060.570000</v>
+        <v>-1060.57</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>41923.009270</v>
+        <v>41923.009270000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>11.645280</v>
+        <v>11.64528</v>
       </c>
       <c r="BP22" s="1">
-        <v>1986.930000</v>
+        <v>1986.93</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1835.790000</v>
+        <v>-1835.79</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>41933.656887</v>
+        <v>41933.656886999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.648238</v>
+        <v>11.648237999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2375.780000</v>
+        <v>2375.7800000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2731.740000</v>
+        <v>-2731.74</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>41944.695384</v>
+        <v>41944.695383999999</v>
       </c>
       <c r="BY22" s="1">
         <v>11.651304</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2856.680000</v>
+        <v>2856.68</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3712.040000</v>
+        <v>-3712.04</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>41957.820984</v>
+        <v>41957.820983999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>11.654950</v>
+        <v>11.654949999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4281.700000</v>
+        <v>4281.7</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6089.580000</v>
+        <v>-6089.58</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>41783.649326</v>
+        <v>41783.649325999999</v>
       </c>
       <c r="B23" s="1">
         <v>11.606569</v>
       </c>
       <c r="C23" s="1">
-        <v>1257.180000</v>
+        <v>1257.18</v>
       </c>
       <c r="D23" s="1">
-        <v>-280.467000</v>
+        <v>-280.46699999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>41794.067322</v>
+        <v>41794.067322000003</v>
       </c>
       <c r="G23" s="1">
         <v>11.609463</v>
       </c>
       <c r="H23" s="1">
-        <v>1278.930000</v>
+        <v>1278.93</v>
       </c>
       <c r="I23" s="1">
-        <v>-244.373000</v>
+        <v>-244.37299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>41804.571074</v>
+        <v>41804.571073999999</v>
       </c>
       <c r="L23" s="1">
-        <v>11.612381</v>
+        <v>11.612380999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1310.310000</v>
+        <v>1310.31</v>
       </c>
       <c r="N23" s="1">
-        <v>-191.985000</v>
+        <v>-191.98500000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>41815.152227</v>
+        <v>41815.152226999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>11.615320</v>
+        <v>11.615320000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1322.460000</v>
+        <v>1322.46</v>
       </c>
       <c r="S23" s="1">
-        <v>-177.382000</v>
+        <v>-177.38200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>41825.899045</v>
+        <v>41825.899044999998</v>
       </c>
       <c r="V23" s="1">
-        <v>11.618305</v>
+        <v>11.618304999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1336.150000</v>
+        <v>1336.15</v>
       </c>
       <c r="X23" s="1">
-        <v>-166.822000</v>
+        <v>-166.822</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>41836.423161</v>
+        <v>41836.423160999999</v>
       </c>
       <c r="AA23" s="1">
         <v>11.621229</v>
       </c>
       <c r="AB23" s="1">
-        <v>1354.550000</v>
+        <v>1354.55</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.226000</v>
+        <v>-167.226</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>41846.887790</v>
+        <v>41846.887790000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>11.624135</v>
+        <v>11.624135000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1368.090000</v>
+        <v>1368.09</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.817000</v>
+        <v>-177.81700000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>41857.441131</v>
@@ -5983,151 +6399,151 @@
         <v>11.627067</v>
       </c>
       <c r="AL23" s="1">
-        <v>1389.370000</v>
+        <v>1389.37</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.423000</v>
+        <v>-208.423</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>41868.347701</v>
+        <v>41868.347700999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.630097</v>
+        <v>11.630096999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1411.270000</v>
+        <v>1411.27</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.625000</v>
+        <v>-252.625</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>41879.274030</v>
+        <v>41879.27403</v>
       </c>
       <c r="AU23" s="1">
         <v>11.633132</v>
       </c>
       <c r="AV23" s="1">
-        <v>1436.010000</v>
+        <v>1436.01</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.773000</v>
+        <v>-312.77300000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>41889.939009</v>
+        <v>41889.939009000002</v>
       </c>
       <c r="AZ23" s="1">
         <v>11.636094</v>
       </c>
       <c r="BA23" s="1">
-        <v>1455.390000</v>
+        <v>1455.39</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.017000</v>
+        <v>-365.017</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>41900.569299</v>
+        <v>41900.569299000003</v>
       </c>
       <c r="BE23" s="1">
         <v>11.639047</v>
       </c>
       <c r="BF23" s="1">
-        <v>1540.400000</v>
+        <v>1540.4</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.815000</v>
+        <v>-613.81500000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>41911.574997</v>
+        <v>41911.574997000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>11.642104</v>
       </c>
       <c r="BK23" s="1">
-        <v>1693.990000</v>
+        <v>1693.99</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1060.530000</v>
+        <v>-1060.53</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>41923.409077</v>
+        <v>41923.409076999997</v>
       </c>
       <c r="BO23" s="1">
         <v>11.645391</v>
       </c>
       <c r="BP23" s="1">
-        <v>1986.910000</v>
+        <v>1986.91</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1835.840000</v>
+        <v>-1835.84</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>41934.068071</v>
+        <v>41934.068071000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>11.648352</v>
+        <v>11.648351999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2375.790000</v>
+        <v>2375.79</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2732.340000</v>
+        <v>-2732.34</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>41945.144231</v>
+        <v>41945.144230999998</v>
       </c>
       <c r="BY23" s="1">
         <v>11.651429</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2855.940000</v>
+        <v>2855.94</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3712.050000</v>
+        <v>-3712.05</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>41958.364630</v>
+        <v>41958.364629999996</v>
       </c>
       <c r="CD23" s="1">
         <v>11.655101</v>
       </c>
       <c r="CE23" s="1">
-        <v>4281.620000</v>
+        <v>4281.62</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6065.150000</v>
+        <v>-6065.15</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>41783.992371</v>
       </c>
@@ -6135,285 +6551,285 @@
         <v>11.606665</v>
       </c>
       <c r="C24" s="1">
-        <v>1257.170000</v>
+        <v>1257.17</v>
       </c>
       <c r="D24" s="1">
-        <v>-280.328000</v>
+        <v>-280.32799999999997</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>41794.414000</v>
+        <v>41794.413999999997</v>
       </c>
       <c r="G24" s="1">
-        <v>11.609559</v>
+        <v>11.609559000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1278.070000</v>
+        <v>1278.07</v>
       </c>
       <c r="I24" s="1">
-        <v>-245.158000</v>
+        <v>-245.15799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>41804.915298</v>
       </c>
       <c r="L24" s="1">
-        <v>11.612476</v>
+        <v>11.612475999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1310.380000</v>
+        <v>1310.3800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-192.278000</v>
+        <v>-192.27799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>41815.851587</v>
+        <v>41815.851586999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>11.615514</v>
+        <v>11.615513999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1322.370000</v>
+        <v>1322.37</v>
       </c>
       <c r="S24" s="1">
-        <v>-177.409000</v>
+        <v>-177.40899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>41826.242804</v>
+        <v>41826.242804000001</v>
       </c>
       <c r="V24" s="1">
         <v>11.618401</v>
       </c>
       <c r="W24" s="1">
-        <v>1336.100000</v>
+        <v>1336.1</v>
       </c>
       <c r="X24" s="1">
-        <v>-166.752000</v>
+        <v>-166.75200000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>41836.773862</v>
+        <v>41836.773862000002</v>
       </c>
       <c r="AA24" s="1">
         <v>11.621326</v>
       </c>
       <c r="AB24" s="1">
-        <v>1354.550000</v>
+        <v>1354.55</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.259000</v>
+        <v>-167.25899999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>41847.233466</v>
+        <v>41847.233465999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>11.624232</v>
+        <v>11.624231999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1368.110000</v>
+        <v>1368.11</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.861000</v>
+        <v>-177.86099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>41858.101306</v>
+        <v>41858.101305999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>11.627250</v>
+        <v>11.62725</v>
       </c>
       <c r="AL24" s="1">
-        <v>1389.340000</v>
+        <v>1389.34</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.412000</v>
+        <v>-208.41200000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>41869.022253</v>
+        <v>41869.022253000003</v>
       </c>
       <c r="AP24" s="1">
         <v>11.630284</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1411.270000</v>
+        <v>1411.27</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.615000</v>
+        <v>-252.61500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>41879.690704</v>
+        <v>41879.690704000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>11.633247</v>
+        <v>11.633247000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1436.030000</v>
+        <v>1436.03</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.783000</v>
+        <v>-312.78300000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>41890.324896</v>
+        <v>41890.324895999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>11.636201</v>
       </c>
       <c r="BA24" s="1">
-        <v>1455.340000</v>
+        <v>1455.34</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.013000</v>
+        <v>-365.01299999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>41900.933857</v>
+        <v>41900.933857000004</v>
       </c>
       <c r="BE24" s="1">
         <v>11.639148</v>
       </c>
       <c r="BF24" s="1">
-        <v>1540.390000</v>
+        <v>1540.39</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.883000</v>
+        <v>-613.88300000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>41911.943555</v>
+        <v>41911.943554999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>11.642207</v>
+        <v>11.642207000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1693.990000</v>
+        <v>1693.99</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1060.570000</v>
+        <v>-1060.57</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>41923.832627</v>
+        <v>41923.832627000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>11.645509</v>
+        <v>11.645509000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1986.990000</v>
+        <v>1986.99</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1835.820000</v>
+        <v>-1835.82</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>41934.499589</v>
+        <v>41934.499588999999</v>
       </c>
       <c r="BT24" s="1">
         <v>11.648472</v>
       </c>
       <c r="BU24" s="1">
-        <v>2375.880000</v>
+        <v>2375.88</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2732.690000</v>
+        <v>-2732.69</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>41945.600585</v>
       </c>
       <c r="BY24" s="1">
-        <v>11.651556</v>
+        <v>11.651555999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2855.800000</v>
+        <v>2855.8</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3711.660000</v>
+        <v>-3711.66</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>41958.905237</v>
+        <v>41958.905236999999</v>
       </c>
       <c r="CD24" s="1">
         <v>11.655251</v>
       </c>
       <c r="CE24" s="1">
-        <v>4270.480000</v>
+        <v>4270.4799999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6084.690000</v>
+        <v>-6084.69</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>41784.332843</v>
+        <v>41784.332842999997</v>
       </c>
       <c r="B25" s="1">
         <v>11.606759</v>
       </c>
       <c r="C25" s="1">
-        <v>1256.580000</v>
+        <v>1256.58</v>
       </c>
       <c r="D25" s="1">
-        <v>-280.640000</v>
+        <v>-280.64</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>41795.100463</v>
+        <v>41795.100463000002</v>
       </c>
       <c r="G25" s="1">
-        <v>11.609750</v>
+        <v>11.60975</v>
       </c>
       <c r="H25" s="1">
-        <v>1277.630000</v>
+        <v>1277.6300000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-244.975000</v>
+        <v>-244.97499999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>41805.609697</v>
@@ -6422,330 +6838,330 @@
         <v>11.612669</v>
       </c>
       <c r="M25" s="1">
-        <v>1310.530000</v>
+        <v>1310.53</v>
       </c>
       <c r="N25" s="1">
-        <v>-192.224000</v>
+        <v>-192.22399999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>41816.195313</v>
+        <v>41816.195312999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>11.615610</v>
+        <v>11.61561</v>
       </c>
       <c r="R25" s="1">
-        <v>1322.280000</v>
+        <v>1322.28</v>
       </c>
       <c r="S25" s="1">
-        <v>-177.342000</v>
+        <v>-177.34200000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>41826.586006</v>
+        <v>41826.586005999998</v>
       </c>
       <c r="V25" s="1">
         <v>11.618496</v>
       </c>
       <c r="W25" s="1">
-        <v>1335.920000</v>
+        <v>1335.92</v>
       </c>
       <c r="X25" s="1">
-        <v>-166.984000</v>
+        <v>-166.98400000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>41837.123014</v>
+        <v>41837.123013999997</v>
       </c>
       <c r="AA25" s="1">
         <v>11.621423</v>
       </c>
       <c r="AB25" s="1">
-        <v>1354.420000</v>
+        <v>1354.42</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.149000</v>
+        <v>-167.149</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>41847.910044</v>
+        <v>41847.910043999997</v>
       </c>
       <c r="AF25" s="1">
         <v>11.624419</v>
       </c>
       <c r="AG25" s="1">
-        <v>1368.030000</v>
+        <v>1368.03</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.878000</v>
+        <v>-177.87799999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>41858.485715</v>
+        <v>41858.485715000003</v>
       </c>
       <c r="AK25" s="1">
         <v>11.627357</v>
       </c>
       <c r="AL25" s="1">
-        <v>1389.290000</v>
+        <v>1389.29</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.457000</v>
+        <v>-208.45699999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>41869.426955</v>
+        <v>41869.426955000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.630396</v>
+        <v>11.630395999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1411.280000</v>
+        <v>1411.28</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.648000</v>
+        <v>-252.648</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>41880.054237</v>
+        <v>41880.054236999997</v>
       </c>
       <c r="AU25" s="1">
         <v>11.633348</v>
       </c>
       <c r="AV25" s="1">
-        <v>1436.050000</v>
+        <v>1436.05</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.782000</v>
+        <v>-312.78199999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>41890.684532</v>
+        <v>41890.684531999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>11.636301</v>
       </c>
       <c r="BA25" s="1">
-        <v>1455.390000</v>
+        <v>1455.39</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.978000</v>
+        <v>-364.97800000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>41901.293956</v>
+        <v>41901.293956000001</v>
       </c>
       <c r="BE25" s="1">
         <v>11.639248</v>
       </c>
       <c r="BF25" s="1">
-        <v>1540.340000</v>
+        <v>1540.34</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.851000</v>
+        <v>-613.851</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>41912.371075</v>
+        <v>41912.371075000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>11.642325</v>
       </c>
       <c r="BK25" s="1">
-        <v>1693.900000</v>
+        <v>1693.9</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1060.540000</v>
+        <v>-1060.54</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>41924.227940</v>
+        <v>41924.227939999997</v>
       </c>
       <c r="BO25" s="1">
         <v>11.645619</v>
       </c>
       <c r="BP25" s="1">
-        <v>1986.960000</v>
+        <v>1986.96</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1835.820000</v>
+        <v>-1835.82</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>41934.928868</v>
+        <v>41934.928868000003</v>
       </c>
       <c r="BT25" s="1">
         <v>11.648591</v>
       </c>
       <c r="BU25" s="1">
-        <v>2375.630000</v>
+        <v>2375.63</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2733.240000</v>
+        <v>-2733.24</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>41946.048440</v>
+        <v>41946.048439999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>11.651680</v>
+        <v>11.651680000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2856.740000</v>
+        <v>2856.74</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3712.010000</v>
+        <v>-3712.01</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>41959.442404</v>
+        <v>41959.442404000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.655401</v>
+        <v>11.655400999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4290.170000</v>
+        <v>4290.17</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6074.260000</v>
+        <v>-6074.26</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>41785.019771</v>
+        <v>41785.019770999999</v>
       </c>
       <c r="B26" s="1">
-        <v>11.606950</v>
+        <v>11.606949999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1257.050000</v>
+        <v>1257.05</v>
       </c>
       <c r="D26" s="1">
-        <v>-280.680000</v>
+        <v>-280.68</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>41795.445181</v>
+        <v>41795.445181000003</v>
       </c>
       <c r="G26" s="1">
-        <v>11.609846</v>
+        <v>11.609845999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1278.780000</v>
+        <v>1278.78</v>
       </c>
       <c r="I26" s="1">
-        <v>-244.552000</v>
+        <v>-244.55199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>41805.956411</v>
+        <v>41805.956410999999</v>
       </c>
       <c r="L26" s="1">
-        <v>11.612766</v>
+        <v>11.612766000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1310.610000</v>
+        <v>1310.6099999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-192.014000</v>
+        <v>-192.01400000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>41816.546518</v>
+        <v>41816.546518000003</v>
       </c>
       <c r="Q26" s="1">
         <v>11.615707</v>
       </c>
       <c r="R26" s="1">
-        <v>1322.320000</v>
+        <v>1322.32</v>
       </c>
       <c r="S26" s="1">
-        <v>-177.213000</v>
+        <v>-177.21299999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>41827.249187</v>
+        <v>41827.249187000001</v>
       </c>
       <c r="V26" s="1">
-        <v>11.618680</v>
+        <v>11.618679999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1335.910000</v>
+        <v>1335.91</v>
       </c>
       <c r="X26" s="1">
-        <v>-166.920000</v>
+        <v>-166.92</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>41837.785173</v>
+        <v>41837.785172999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>11.621607</v>
+        <v>11.621606999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1354.420000</v>
+        <v>1354.42</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.237000</v>
+        <v>-167.23699999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>41848.268119</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.624519</v>
+        <v>11.624518999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1368.050000</v>
+        <v>1368.05</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.827000</v>
+        <v>-177.827</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>41858.834402</v>
@@ -6754,118 +7170,118 @@
         <v>11.627454</v>
       </c>
       <c r="AL26" s="1">
-        <v>1389.340000</v>
+        <v>1389.34</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.429000</v>
+        <v>-208.429</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>41869.809867</v>
+        <v>41869.809867000004</v>
       </c>
       <c r="AP26" s="1">
-        <v>11.630503</v>
+        <v>11.630502999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1411.280000</v>
+        <v>1411.28</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.632000</v>
+        <v>-252.63200000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>41880.421773</v>
+        <v>41880.421773000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>11.633450</v>
+        <v>11.63345</v>
       </c>
       <c r="AV26" s="1">
-        <v>1436.020000</v>
+        <v>1436.02</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.803000</v>
+        <v>-312.803</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>41891.106094</v>
+        <v>41891.106094000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>11.636418</v>
+        <v>11.636418000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1455.360000</v>
+        <v>1455.36</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.983000</v>
+        <v>-364.983</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>41901.730434</v>
+        <v>41901.730433999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>11.639370</v>
+        <v>11.63937</v>
       </c>
       <c r="BF26" s="1">
-        <v>1540.340000</v>
+        <v>1540.34</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.866000</v>
+        <v>-613.86599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>41912.722738</v>
+        <v>41912.722737999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>11.642423</v>
+        <v>11.642423000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1693.880000</v>
+        <v>1693.88</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1060.600000</v>
+        <v>-1060.5999999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>41924.647090</v>
+        <v>41924.647089999999</v>
       </c>
       <c r="BO26" s="1">
         <v>11.645735</v>
       </c>
       <c r="BP26" s="1">
-        <v>1986.880000</v>
+        <v>1986.88</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1835.610000</v>
+        <v>-1835.61</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>41935.337858</v>
+        <v>41935.337857999999</v>
       </c>
       <c r="BT26" s="1">
         <v>11.648705</v>
       </c>
       <c r="BU26" s="1">
-        <v>2375.230000</v>
+        <v>2375.23</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2733.400000</v>
+        <v>-2733.4</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>41946.504794</v>
@@ -6874,30 +7290,31 @@
         <v>11.651807</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2857.140000</v>
+        <v>2857.14</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3711.510000</v>
+        <v>-3711.51</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>41959.981592</v>
+        <v>41959.981591999996</v>
       </c>
       <c r="CD26" s="1">
-        <v>11.655550</v>
+        <v>11.65555</v>
       </c>
       <c r="CE26" s="1">
-        <v>4272.350000</v>
+        <v>4272.3500000000004</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6072.330000</v>
+        <v>-6072.33</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>